--- a/data/predicciones_definitivas_grupo_16.xlsx
+++ b/data/predicciones_definitivas_grupo_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>texto_limpio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>label</t>
         </is>
       </c>
@@ -451,7 +456,12 @@
           <t>El rector, que es el representante local del Ministerio de Educación, tiene la responsabilidad principal de procesar la evaluación. A pesar de esta centralización, el sistema francés se basa en gran medida en el principio de participación y, por lo tanto, los docentes están involucrados en todos los procesos (INCA France, 2008). Aunque existían diferencias entre los procedimientos de evaluación en los Länder alemanes, la única herramienta de verificación era la recopilación de algunos documentos de muestra para la verificación central. A estas alturas, sin embargo, la mayoría de los Länder han introducido exámenes centrales hasta cierto punto.</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rector ser representante local ministerio educación tener responsabilidad principal procesar evaluación pesar centralización sistema francés basar gran medida principio participación docente involucrado proceso inco france aunque existir diferencia procedimiento evaluación nder alemán único herramienta verificación ser recopilación alguno documento muestra verificación central altura embargo mayoría nder haber introducir examen central cierto punto</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -461,7 +471,12 @@
           <t>Tenga en cuenta que todos los programas antipobreza tienen condiciones, incluso aquellos caracterizados como 'incondicionales'. Nuestro enfoque está en las condiciones de comportamiento vinculadas a los programas antipobreza. Las condiciones más utilizadas son aquellas que incentivan la creación de activos físicos (generalmente a nivel comunitario) o la acumulación de capital humano en términos de educación o salud.</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tener cuenta programa antipobrezar tener condición incluso aquel caracterizado incondicional enfoque condición comportamiento vinculado programa antipobrezar condición utilizado ser aquel incentivar creación activo físico generalmente nivel comunitario acumulación capital humano término educación salud</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -471,7 +486,12 @@
           <t>Debido a que son en gran medida invisibles, estas formas de trabajo infantil son las más difíciles de abordar. Las trabajadoras del hogar, en su mayoría niñas, se encuentran aisladas y sujetas a los caprichos y la disciplina arbitraria de sus empleadores, de quienes pueden sufrir abusos. El abuso sexual es frecuente pero rara vez procesado. La violencia o el abuso en el hogar o en el vecindario ahuyenta a muchos, como lo han demostrado estudios en ciudades tan diversas como Dhaka, Bangladesh y Moscú, Federación Rusa.67 La pobreza también juega un papel.</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>debido ser gran medida invisible forma trabajo infantil ser difícil abordar trabajadora hogar mayoría niña encontrar aislado sujeto capricho disciplina arbitrario empleador poder sufrir abuso abuso sexual ser frecuente rar vez procesado violencia abuso hogar vecindario ahuyentar haber demostrar estudio ciudad diverso dhaka bangladesh moscú federación ruso pobreza jugar papel</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -481,7 +501,12 @@
           <t>Los recursos aún son limitados en este sector. Los servicios privados con fines de lucro y comunitarios (religiosos y seculares) son los principales proveedores directos de jardines de infancia y grupos de juego. A pesar del crecimiento significativo en este sector, todavía hay una serie de desafíos para la provisión de un servicio más universal y consistente para los niños en edad preescolar.</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>recurso aún ser limitar sector servicio privado fin lucro comunitario religioso secular ser principal proveedor directo jardín infancia grupo juego pesar crecimiento significativo sector todavía haber serie desafío provisión servicio universal consistente niño edad preescolar</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -491,7 +516,12 @@
           <t>Durante el período 1985-2008, la educación primaria, secundaria y terciaria experimentó un aumento sin precedentes en la matrícula. La educación superior mostró el mayor crecimiento con un 93,1%, lo que representa un aumento anual del 4,1%. La mejora del acceso se refleja en el porcentaje de matriculación en educación superior en la cohorte de edad de 19 a 24 años, que creció del 0,6% en 1970 al 24,4% en 2007.</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>período educación primario secundario terciaria experimentar aumento precedente matrícula educación superior mostrar mayor crecimiento representar aumento anual mejora acceso reflejar porcentaje matriculación educación superior cohorte edad año crecer</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -501,7 +531,12 @@
           <t>En la región de Asia y el Pacífico, casi el 87% de los niños de 1 año o menos están inmunizados contra el sarampión. Sin embargo, este agregado enmascara las diferencias entre subregiones. Asia oriental y nororiental (98,7%) y Asia septentrional y central (96,7%) tienen una tasa de inmunización cercana al 100%. Asia meridional y sudoccidental tiene la tasa más baja (78,5%), seguida del Pacífico (81,7%).</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>región asia pacífico casi niño año menos inmunizado sarampión embargo agregado enmascarar diferencia subregión asia oriental nororiental asia septentrional central tener tasa inmunización cercano asia meridional sudoccidental tener tasa bajo seguido pacífico</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -511,7 +546,12 @@
           <t>Esta combinación representa una oportunidad para que tanto los alumnos indígenas como los no indígenas se familiaricen con las tradiciones indígenas y, al mismo tiempo, fomenta un proceso de aprendizaje mutuo entre los profesores. Aunque incipiente, también existe un esfuerzo por aumentar el nivel de concienciación sobre la interculturalidad entre la población en general. Si bien el programa PEIB existe desde 1996, no fue sino hasta 2009 que el gobierno chileno estableció explícitamente el principio de interculturalidad y protección de la lengua y cultura indígena a través de la Ley General de Educación, e incorporó la lengua indígena al currículo.</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>combinación representar oportunidad alumno indígena indígena familiaricir tradición indígena mismo tiempo fomentar proceso aprendizaje mutuo profesor aunque incipiente existir esfuerzo aumentar nivel concienciación interculturalidad población general bien programa peib existir ser sino gobierno chileno establecer explícitamente principio interculturalidad protección lengua cultura indígenar través ley general educación incorporar lengua indígén currículo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -521,7 +561,12 @@
           <t>Además, muchos llevan a cabo prácticas de seguimiento de la calidad del servicio con el objetivo de informar al público sobre el nivel de calidad proporcionado (19), lo que brinda más transparencia a los usuarios de la EAPI. Además, es común monitorear la calidad del servicio para mejorar el desarrollo de los niños (16) y mejorar el desempeño del personal (16). Fuente: Tabla 3.1, Red de la OCDE sobre EAPI, "Encuesta en línea sobre el seguimiento de la calidad en el aprendizaje y el desarrollo tempranos", noviembre de 2013.</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>además llevar cabo práctica seguimiento calidad servicio objetivo informar público nivel calidad proporcionado brindar transparencia usuario eapi además ser común monitorear calidad servicio mejorar desarrollo niño mejorar desempeño personal fuente tablo red ocde eapi encuesta línea seguimiento calidad aprendizaje desarrollo temprano noviembre</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -531,7 +576,12 @@
           <t>El alcance de esta visión holística se basa en los avances logrados durante el período de los ODM, durante el cual las tasas netas de matriculación en la educación primaria aumentaron del 83 al 91 por ciento en las regiones en desarrollo del mundo (Naciones Unidas 2015). Como lo refuerza la Declaración de Incheon del Foro Mundial de Educación 2015 (Foro Mundial de Educación 2015), la educación y el aprendizaje a lo largo de toda la vida se reconocen a través del ODS 4 como derechos humanos fundamentales y vitales para hacer realidad las aspiraciones más amplias de la Agenda 2030 para el Desarrollo Sostenible. Finalmente, muchas iniciativas basadas en el deporte también se han orientado hacia el desarrollo holístico y el empoderamiento de los jóvenes y la difusión de mensajes educativos, por lo que son relevantes para las metas 4.4 y 4.7 de los ODS.</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>alcance visión holístico basar avance logrado período odm tasa neto matriculación educación primario aumentar ciento región desarrollo mundo naciones unidas reforzar declaración incheon foro mundial educación foro mundial educación educación aprendizaje largo vida reconocer través ods derechos humanos fundamental vital hacer realidad aspiración amplio agenda desarrollo sostenible finalmente iniciativa basado deporte haber orientar hacia desarrollo holístico empoderamiento joven difusión mensaje educativo ser relevante meta ods</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -541,7 +591,12 @@
           <t>Véase C. Correa, "Protecting Test Data for Pharmaceutical and Agrochemical Products under Free Trade Agreements", en Negotiating Health, pp. Sin embargo, como ya se ha mencionado, se reconoce ampliamente que esta obligación crea barreras insuperables para los productores de genéricos en términos de recursos financieros y de tiempo. Cuando los datos protegidos se refieren a sustancias no protegidas por patentes, un régimen de exclusividad de los datos erige, por tanto, una nueva e importante barrera de acceso al mercado para los productores de genéricos.</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>vea él correa protecting test data for pharmaceutical and agrochemical products under free tradar agreement negotiating health embargo haber mencionar reconocer ampliamente obligación creer barrera insuperabl productor genérico término recurso financiero tiempo dato protegido referir sustancia protegido patente régimen exclusividad dato erigir nuevo importante barrera acceso mercado productor genérico</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -551,7 +606,12 @@
           <t>En 2012, alrededor del 10 % de la variación en la puntuación de matemáticas en la prueba PISA se explicó por el entorno socioeconómico de los estudiantes en Corea. De media en la OCDE, alrededor del 15 % de la variación en la puntuación de matemáticas de PISA se explica por el entorno socioeconómico, que alcanza más del 15 % en países como Francia y Alemania. Como en la mayoría de los demás países de la OCDE, la variación en la puntuación de matemáticas de PISA es mayor dentro de las escuelas que entre escuelas.</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>alrededor variación puntuación matemática prueba pís explicar entorno socioeconómico estudiante corea medio ocde alrededor variación puntuación matemática pisa explicar entorno socioeconómico alcanzar país francia alemania mayoría demás país ocde variación puntuación matemática pisa ser mayor dentro escuela escuela</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -561,7 +621,12 @@
           <t>Esto reduce el desempeño promedio del país (ver Figura 3.3). Además, la proporción muy pequeña de estudiantes (0,9 %) que alcanzan los niveles más altos en ciencias, matemáticas o lectura (niveles 5 o 6), muy por debajo del promedio de los países de la OCDE (15 %), significa que hay una grupo muy pequeño de jóvenes que terminan la escuela y que están bien preparados para seguir una educación técnica y científica de nivel superior, un gran desafío para un país que busca desarrollar sus industrias basadas en el conocimiento. Casi un tercio (31%) de los jóvenes de 15 años han repetido año en Costa Rica, por encima de todos los países de la OCDE excepto México (ver Figura 3.4). Sin embargo, las tasas de repetición de curso en la escuela primaria se redujeron casi a la mitad entre 2005 y 2014, del 7,5 % al 4,3 %, como resultado de las nuevas normas que restringen su uso (véase el Capítulo 4).</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>reducir desempeño promedio país ver figurar además proporción pequeño estudiante alcanzar nivel alto ciencia matemático lectura nivel debajo promedio país ocde significar haber grupo pequeño joven terminar escuela bien preparado seguir educación técnico científico nivel superior gran desafío país buscar desarrollar industria basado conocimiento casi tercio joven año haber repetir año costa rico encima país ocde excepto méxico ver figura embargo tasa repetición curso escuela primario reducir casi mitad resultado nuevo norma restringir uso véar capítulo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -571,7 +636,12 @@
           <t>En general, la literatura sugiere que una reducción significativa de las tasas de pobreza es consecuencia del crecimiento económico combinado con políticas para reducir la desigualdad de ingresos. El resultado conjunto de estos dos efectos es que la reducción de la pobreza se traduce directamente en mejoras en el ingreso promedio de los más pobres. Según este autor, la reducción que se produjo en los primeros años de la década fue consecuencia de varios factores que tuvieron impactos regionales diferenciados, entre ellos cambios distributivos en el rendimiento del trabajo y la expansión de los beneficios sociales. La proporción de pobres (P0) cayó del 38,70% en 1995 al 23,50% en 2009, cifra que, si bien sigue siendo alta, representa una reducción de 15,20 puntos porcentuales.</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>general literatura sugerir reducción significativo tasa pobreza ser consecuencia crecimiento económico combinado política reducir desigualdad ingreso resultado conjunto dos efecto ser reducción pobreza traducir directamente mejora ingreso promedio pobre según autor reducción producir primero año década ser consecuencia varios factor tener impacto regional diferenciado cambio distributivo rendimiento trabajo expansión beneficio social proporción pobre caer cifra bien seguir ser alto representar reducción punto porcentual</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -581,7 +651,12 @@
           <t>Con el tiempo, considere alejarse del financiamiento compartido y aumentar los subsidios de cupones lo suficiente para compensar esto. Si es necesario, los asistentes de maestros y maestros de educación especial capacitados brindan apoyo adicional bajo la supervisión del maestro. Cerca del 30% de la población estudiantil recibe este apoyo cada año (Field, Kuczera y Pont, 2007). Si todas estas medidas fallan, un equipo multidisciplinario integrado por maestros, trabajadores sociales, psicólogos y representantes de las autoridades de salud y vivienda pública, si es necesario, elabora un plan de apoyo.</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tiempo considerar alejar él financiamiento compartido aumentar subsidio cupón suficiente compensar ser necesario asistente maestro maestro educación especial capacitado brindar apoyo adicional bajo supervisión maestro cerca población estudiantil recibir apoyo cada año field kuczera pont medida fallar equipo multidisciplinario integrado maestro trabajador social psicólogo representante autoridad salud vivienda público ser necesario elaborar plan apoyo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -591,7 +666,12 @@
           <t>La concesión de un título es, por lo tanto, un reconocimiento oficial de los logros de un estudiante por parte de un organismo competente. En un paso adicional, la certificación asegura la documentación de las habilidades de los estudiantes que les permite comunicar sus competencias a otros (OCDE, 2007). Dado que el final de la educación secundaria superior representa un punto de decisión importante para la progresión de la carrera de un estudiante en la mayoría de los países de la OCDE, la evaluación para la calificación y la certificación en esta etapa de la educación implica mucho en juego, lo que lleva a varias particularidades para su diseño e implementación. .</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>concesión título ser reconocimiento oficial logro estudiante parte organismo competente paso adicional certificación asegurar documentación habilidad estudiante permitir comunicar competencia ocde dado final educación secundario superior representar punto decisión importante progresión carrera estudiante mayoría país ocde evaluación calificación certificación etapa educación implicar juego llevar varios particularidad diseño implementación</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -601,7 +681,12 @@
           <t>En muchos aspectos, la "calidad" está en el corazón del sistema de salud de Gales, este capítulo describe la ya rica arquitectura de calidad de la atención médica de Gales. La ambición de un excelente sistema de salud centrado en el paciente, que promueva la calidad, el acceso y la equidad está claramente presente en Gales, pero ahora se necesitan pasos prácticos tangibles para realizar los cambios necesarios. Este capítulo hace una serie de recomendaciones para ayudar a Gales a fortalecer la garantía y la mejora de la calidad.</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>aspecto calidad corazón sistema salud gal capítulo describir rico arquitectura calidad atención médico gales ambición excelente sistema salud centrado paciente promover calidad acceso equidad claramente presente gales ahora necesitar paso práctico tangible realizar cambio necesario capítulo hacer serie recomendación ayudar gal fortalecer garantía mejora calidad</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -611,7 +696,12 @@
           <t>Con el objetivo de convertirse en una de las instituciones de educación superior de mejor rendimiento en todo el mundo como universidad APEX, la USM ha establecido una agenda, Transformar la educación superior para un mañana sostenible con el fin de "apoyar el impulso para mejorar el bienestar de la humanidad, el fondo billones.†El fortalecimiento de los programas de posgrado en medicina de la salud, ciencias de la vida, ciencias de la salud, ingeniería y tecnología y tecnología de la información está directamente en consonancia con las prioridades regionales. Desarrollar el grupo de investigadores e ingenieros altamente calificados es fundamental para la capacidad de la región para competir sobre la base del diseño, el desarrollo y la innovación en la industria eléctrica y electrónica y otras industrias.</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>objetivo convertir él institución educación superior mejor rendimiento mundo universidad apex usm haber establecer agenda transformar educación superior mañana sostenible fin apoyar impulso mejorar bienestar humanidad fondo billón fortalecimiento programa posgrado medicina salud ciencia vida ciencias salud ingeniería tecnología tecnología información directamente consonancia prioridad regional desarrollar grupo investigador ingeniero altamente calificado ser fundamental capacidad región competir base diseño desarrollo innovación industria eléctrico electrónico industria</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -621,7 +711,12 @@
           <t>Recientemente, el Instituto Australiano de Docencia y Liderazgo Escolar (AITSL, por sus siglas en inglés) desarrolló un conjunto nacional de estándares profesionales para directores escolares con el fin de proporcionar un marco nacional para su uso en todas las escuelas y sistemas educativos del país, como un paso hacia un enfoque nacional más coherente. El estándar profesional nacional para directores tiene como objetivo definir la función de los directores escolares y unificar la profesión a nivel nacional, describir la práctica profesional de los directores escolares en un lenguaje común y explicitar el papel del liderazgo escolar de calidad para mejorar los resultados del aprendizaje. El estándar nacional de contenidos está diseñado para ayudar a atraer, desarrollar y apoyar a los directores de centros escolares aspirantes y en ejercicio.</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>recientemente instituto australiano docencia liderazgo escolar aitsl sigla inglés desarrollar conjunto nacional estándar profesional director escolar fin proporcionar marco nacional uso escuela sistema educativo país paso hacia enfoque nacional coherente estándar profesional nacional director tener objetivo definir función director escolar unificar profesión nivel nacional describir práctica profesional director escolar lenguaje común explicitar papel liderazgo escolar calidad mejorar resultado aprendizaje estándar nacional contenido diseñado ayudar atraer desarrollar apoyar director centro escolar aspirante ejercicio</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -631,7 +726,12 @@
           <t>La mayoría de los indicadores incluidos en la medida de pobreza propuesta ya se consideran "indicadores básicos" en los informes oficiales de Alemania sobre pobreza y riqueza (p. ej., Bundesregierung, 2013). Estos indicadores en sí mismos han sido seleccionados en base al asesoramiento académico (Arndt y Volkert, 2007). El índice de pobreza se calcula para tres puntos de tiempo (que abarcan 2001-2012) y comprende 6 dimensiones: educación, salud, vivienda, empleo, privación material y participación social.</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mayoría indicador incluido medida pobreza propuesto considerar indicador básico informe oficial alemania pobreza riqueza bundesregierung indicador mismo haber ser seleccionar base asesoramiento académico arndt volkert índice pobreza calcular tres punto tiempo abarcar comprender dimensión educación salud vivienda empleo privación material participación social</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -641,7 +741,12 @@
           <t>Por lo tanto, existen muchos ejemplos documentados de cómo diferentes países de la Commonwealth utilizan el deporte para apoyar algunas de sus principales prioridades políticas en materia de salud. La red cree que el deporte y la actividad física son medios eficaces para atraer a los jóvenes y, al mismo tiempo, sirven como medios creativos para facilitar y compartir mensajes positivos sobre el VIH y el SIDA y otros problemas de salud críticos que afectan a la juventud. El deporte y la actividad física se utilizan para concienciar sobre el VIH y el SIDA, al tiempo que se anima a los jóvenes a debatir cuestiones que afectan a sus vidas y a sus comunidades.</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>existir ejemplo documentado cómo diferente país commonwealth utilizar deporte apoyar alguno principal prioridad política materia salud red creer deporte actividad físico ser medio eficaz atraer joven mismo tiempo servir medio creativo facilitar compartir mensaje positivo vih sida problema salud crítico afectar juventud deporte actividad físico utilizar concienciar vih sida tiempo animar joven debatir cuestión afectar vida comunidad</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -651,7 +756,12 @@
           <t>En 2009, el gobierno de Kazak lanzó una nueva iniciativa llamada 'Hoja de ruta' destinada a abordar el aumento del desempleo, aumentar el poder adquisitivo de la población, frenar la migración interna y mejorar los servicios básicos (Gavrilovic, et al. The central focus del programa fue la creación de empleo a través de una combinación de obras públicas y formación profesional. El programa creó 252.277 puestos de trabajo según un informe del ADB (2009, citado en Gavrilovic et al.,</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>gobierno kazak lanzar nuevo iniciativa llamado hoja ruta destinado abordar aumento desempleo aumentar poder adquisitivo población frenar migración interno mejorar servicio básico gavrilovic the central focus programa ser creación empleo través combinación obra público formación profesional programa crear puesto trabajo según informe adb citado gavrilovic</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -661,7 +771,12 @@
           <t>La edad también podría ser un factor contribuyente, ya que se ha visto que las enfermedades mentales entre los jóvenes suecos van en aumento. Es más probable que las personas más jóvenes requieran atención psiquiátrica (consulte la sección 2) y Estocolmo tiene una población relativamente joven. Este elemento de edad, sin embargo, no es necesariamente aplicable. Uppsala, por ejemplo, también tiene una población joven, pero informa costos de atención psiquiátrica que, sin embargo, están en línea con el promedio nacional (National Board of Health and Welfare, 2010).</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>edad poder ser factor contribuyente haber ver enfermedad mental joven sueco aumento ser probable persona joven requeír atención psiquiátrico consultar sección estocolmo tener población relativamente joven elemento edad embargo ser necesariamente aplicable uppsalir ejemplo tener población joven informar costo atención psiquiátrico embargo línea promedio nacional national board health and welfare</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -671,7 +786,12 @@
           <t>También se ven afectados negativamente por los determinantes subyacentes de la salud, como el acceso al agua potable, el saneamiento, la vivienda adecuada y la nutrición. Además, los profesionales de la salud pueden brindar diagnósticos, medicamentos y atención de menor calidad e incluso pueden mostrar negligencia hacia las personas discriminadas. La discriminación indirecta que experimentan los pueblos indígenas puede parecer superficialmente neutral, pero tiene el efecto de la discriminación. Un buen ejemplo de discriminación indirecta incluye brindar información y servicios de salud solo en el idioma dominante o de acuerdo con las prácticas culturales dominantes, lo que resulta en la exclusión de facto de los pueblos indígenas. En la región de Asia, como en otras partes del mundo, los pueblos indígenas han hablado claramente sobre este tema afirmando que tal revolución de datos debería incluir la recopilación de información desagregada sobre indicadores clave tanto para la línea de base como para el seguimiento del progreso.</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ver afectado negativamente determinante subyacente salud acceso agua potable saneamiento vivienda adecuado nutrición además profesional salud poder brindar diagnóstico medicamento atención menor calidad incluso poder mostrar negligencia hacia persona discriminado discriminación indirecto experimentar pueblo indígena poder parecer superficialmente neutral tener efecto discriminación buen ejemplo discriminación indirecto incluir brindar información servicio salud solo idioma dominante acuerdo práctica cultural dominante resultar exclusión facto pueblo indígena región asia parte mundo pueblo indígena haber hablar claramente tema afirmar tal revolución dato deber incluir recopilación información desagregado indicador clave línea base seguimiento progreso</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -681,7 +801,12 @@
           <t xml:space="preserve">Por ejemplo, los servicios de urgencias tienen que prestar asistencia aunque ya se hayan cubierto las cuotas anuales de determinados servicios, por lo que el número de casos de este tipo puede proporcionar alguna indicación de si las cuotas se han fijado adecuadamente. El origen y destino final de los pacientes también puede proporcionar una indicación de si la capacidad en los distintos niveles de atención es adecuada, tanto en términos de acceso como de calidad de la atención. En 2013, había 3,1 médicos en ejercicio por cada 1 000 habitantes, cerca de la media de la OCDE de 3,2, y un ligero aumento con respecto a 2000, cuando había 2,9 médicos en ejercicio por cada 1 000 habitantes en Letonia. </t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ejemplo servicio urgencia tener prestar asistencia aunque haber cubrir cuota anual determinado servicio número caso tipo poder proporcionar alguno indicación cuota haber fijar adecuadamente origen destino final paciente poder proporcionar indicación capacidad distinto nivel atención ser adecuar término acceso calidad atención haber médico ejercicio cada habitante cerca media ocde ligero aumento respecto haber médico ejercicio cada habitante letonia</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -691,7 +816,12 @@
           <t>Este ejercicio se realizó sobre la base de una medida de ingresos insuficientes. Por su parte, Chile tiene una incidencia de pobreza más baja pero un nivel de intensidad de pobreza muy similar al observado en Argentina, Brasil, Costa Rica y Uruguay. En cuanto al área de residencia, los valores de MO son más altos en las zonas rurales de Guatemala, Nicaragua y Perú, mientras que en cuanto a la etnia, los valores más altos de MO se encuentran entre la población indígena de Guatemala, Paraguay y Perú.</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ejercicio realizar base medida ingreso insuficiente parte chile tener incidencia pobreza bajo nivel intensidad pobreza similar observado argentina brasil costa rico uruguay cuanto área residencia valor ser alto zona rural guatemala nicaragua perú mientras cuanto etnia valor alto encontrar población indígén guatemala paraguay perú</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -701,7 +831,12 @@
           <t>Sin embargo, es posible que dentro de una familia categorizada como en situación de privación, los niños no sean víctimas si, por ejemplo, los padres tienen como prioridad satisfacer las necesidades de sus hijos. A diferencia de las encuestas europeas, la encuesta canadiense tampoco proporciona información sobre la disponibilidad de recursos para satisfacer las necesidades educativas, recreativas o deportivas específicas de los niños. La Tabla 2 muestra la proporción de niños menores de 17 años en Canadá privados de una variedad de bienes materiales, recursos y oportunidades agrupados según su condición de pobreza de ingresos. Los niños que no son pobres tienen menos probabilidades que los niños pobres de ingresos de sufrir privaciones en todas las medidas de la Tabla 2.</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>embargo ser posible dentro familia categorizado situación privación niño ser víctima ejemplo padre tener prioridad satisfacer necesidad hijo diferencia encuesta europeo encuesta canadiense tampoco proporcionar información disponibilidad recurso satisfacer necesidad educativo recreativa deportivo específico niño tabla mostrar proporción niño menor año canadá privado variedad bien material recurso oportunidad agrupado según condición pobreza ingreso niño ser pobre tener menos probabilidad niño pobre ingreso sufrir privación medida tabla</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +846,12 @@
           <t>Los equipos de intervención temprana aceptan referencias de médicos de cabecera y otros equipos de salud mental de la comunidad. A veces, los equipos locales de intervención temprana también aceptarán autorreferencias o referencias de amigos y familiares. Las personas con necesidades complejas que requieren apoyo continuo pueden ser incluidas en el enfoque del programa de atención (CPA). Luego deben recibir un plan de atención y revisiones periódicas.</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>equipo intervención temprano aceptar referencia médico cabecera equipo salud mental comunidad veces equipo local intervención temprano aceptar autorreferencia referencia amigo familiar persona necesidad complejo requerir apoyo continuo poder ser incluir enfoque programa atención cpa luego deber recibir plan atención revisión periódico</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -721,7 +861,12 @@
           <t>He descubierto que (este síndrome) es un obstáculo tan importante para el desarrollo en África como las infraestructuras inadecuadas o la mala gobernanza, y ha añadido un peso adicional a la labor de quienes desean que las personas y las comunidades mejoren sus circunstancias. Esta Nota de Orientación Política examina la relación causal entre la capacitación y el crecimiento en favor de los pobres. Identifica ocho ámbitos de empoderamiento dentro de tres esferas: la económica (mercados, empleo digno y activos productivos), la política (representación política y acción colectiva) y la social (capacidades humanas, conciencia crítica e inclusión) y describe lo que los donantes pueden hacer para apoyar y reforzar el empoderamiento en esos ámbitos. Las sugerencias sobre cómo deben trabajar los donantes para lograr un efecto óptimo incluyen mensajes clave para la cooperación al desarrollo.</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>haber descubrir síndrome ser obstáculo importante desarrollo áfrica infraestructura inadecuado malo gobernanza haber añadir peso adicional labor desear persona comunidad mejorar circunstancia nota orientación político examinar relación causal capacitación crecimiento favor pobre identificar ocho ámbito empoderamiento dentro tres esfera económico mercado empleo digno activo productivo político representación político acción colectivo social capacidad humano conciencia crítico inclusión describir donante poder hacer apoyar reforzar empoderamiento ámbito sugerencia cómo deber trabajar donante lograr efecto óptimo incluir mensaje clave cooperación desarrollo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -731,7 +876,12 @@
           <t xml:space="preserve">A lo largo de diez años cerraron escuelas especiales y destinaron los recursos al sistema general. No obstante, reconoce que no siempre se trata a las personas como iguales y que los jóvenes con discapacidad sufren discriminación y desventajas. El Consejo cree que la educación especial segregada es un factor importante de discriminación. </t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>largo diez año cerrar escuela especial destinar recurso sistema general obstante reconocer siempre tratar persona igual joven discapacidad sufrir discriminación desventaja consejo creer educación especial segregado ser factor importante discriminación</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -741,7 +891,12 @@
           <t>Según esta definición, aproximadamente 40 millones de los 250 millones de habitantes de la UE viven actualmente en hogares sin trabajo. Pero en 2008 se inició el seguimiento de la pobreza infantil. Después de consultas, se incluyó un conjunto de indicadores específicos para la vida de los niños como un módulo especial en la ronda de 2009 de las Estadísticas de la Unión Europea sobre ingresos y condiciones de vida (EU-SILC).</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>según definición aproximadamente millón millón habitante vivir actualmente hogar trabajo iniciar seguimiento pobreza infantil después consulta incluir conjunto indicador específico vida niño módulo especial ronda estadística unión europea ingreso condición vida silc</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -751,7 +906,12 @@
           <t>Además, los valores judíos definen la cultura dominante de la mayoría de las instituciones de educación superior en Galilea (Gobierno de Israel, 2009). El desarrollo de la Institución Académica Nazareth (NAI) en el corazón de la ciudad de mayoría árabe de Nazareth es un desarrollo especialmente importante (ver Cuadro 2.1.). Dada la gran población árabe en Galilea, estos son temas críticos que deben abordarse en un examen del papel de los colegios y universidades en el futuro de esta región.</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>además valor judío definir cultura dominante mayoría institución educación superior galilea gobierno israel desarrollo institución académico nazareth nai corazón ciudad mayoría árabe nazareth ser desarrollo especialmente importante ver cuadro dar gran población árabe galilea ser tema crítico deber abordar él examen papel colegio universidad futuro región</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -761,7 +921,12 @@
           <t>El consumo anual de alcohol se estima en 15,7 litros al año para los hombres, más de un 50% por encima de la media de la OCDE (10,4) (Sistema mundial de información sobre alcohol y salud de la OMS), lo que puede ayudar a explicar la alta mortalidad por enfermedad hepática relacionada con el alcohol. Si bien la prevalencia de la obesidad en adultos es relativamente baja en comparación con muchos países de la OCDE, más del 30 % de las mujeres en Kazajstán son obesas, en comparación con el 16 % de los hombres (World Obesity, 2016), lo que coloca la tasa entre las mujeres a la par con algunos de los países más obesos de la OCDE. De hecho, una gran proporción de la brecha en la esperanza de vida se explica por una mayor mortalidad entre los jóvenes kazajos de 15 a 29 años, un grupo de edad en el que las tasas generales de mortalidad son más de tres veces más altas que en la UE de los 15.</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>consumo anual alcohol estimar litro año hombre encima media ocde sistema mundial información alcohol salud oms poder ayudar explicar alto mortalidad enfermedad hepático relacionado alcohol bien prevalencia obesidad adulto ser relativamente bajo comparación país ocde mujer kazajstán ser obesa comparación hombre world obesity colocar tasa mujer par alguno país obeso ocde hecho gran proporción brecha esperanza vida explicar mayor mortalidad joven kazajo año grupo edad tasa general mortalidad ser tres vez alto</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -771,7 +936,12 @@
           <t>La experiencia finlandesa y la investigación internacional demuestran que la inversión en educación primaria se amortiza en cursos posteriores gracias a la mejora de las aptitudes y las capacidades de aprendizaje, así como a los resultados generales positivos. Las escuelas suelen ser pequeñas, con clases de entre 15 y 30 alumnos. En 2004, más de un tercio de las escuelas integrales finlandesas tenían menos de 50 alumnos, solo el 4% de todas las escuelas tenían 500 o más alumnos (Estadísticas de Finlandia, 2011)'.</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>experiencia finlandés investigación internacional demostrar inversión educación primario amortizar curso posterior gracias mejora aptitud capacidad aprendizaje así resultado general positivo escuela soler ser pequeño clase alumno tercio escuela integral finlandés tener menos alumno solo escuela tener alumno estadístico finlandia</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -781,7 +951,12 @@
           <t>El NHIF recortó los precios pagados a los proveedores pero, en general, protegió los gastos de atención primaria. En general, hay poca deuda acumulada en el sistema. De hecho, Lituania ha reducido considerablemente su sector de camas de hospital desde la década de 1990, aunque no tan drásticamente como sus vecinos bálticos, y todavía tiene la segunda proporción más alta de camas de cuidados curativos por población en la UE. En años más recientes, la reducción se centró principalmente en fusiones de hospitales como entidades legales sin cambiar la infraestructura real.</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>nhif recortar precio pagado proveedor general proteger gasto atención primario general haber deuda acumulado sistema hecho lituania haber reducir considerablemente sector cama hospital década aunque drásticamente vecino báltico todavía tener segundo proporción alto cama cuidado curativo población año reciente reducción centrar principalmente fusión hospital entidad legal cambiar infraestructura real</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -791,7 +966,12 @@
           <t>El alcohol es uno de los cuatro factores relacionados con el estilo de vida abordados por la Estrategia de Enfermedades No Transmisibles de 2010. En 2011 se introdujeron medidas legislativas para reducir el consumo excesivo de alcohol mediante restricciones que reducen el acceso a alcohol de menor precio y su consumo en áreas específicas. Más recientemente, se emitió para consulta la primera política nacional sobre alcohol en 2016. Malta fue uno de los primeros países en introducir una prohibición de fumar en 2004 y ha actualizado continuamente las regulaciones sobre publicidad y promoción del tabaco.</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>alcohol ser cuatro factor relacionado estilo vida abordado estrategia enfermedad transmisibl introducir medida legislativo reducir consumo excesivo alcohol mediante restricción reducir acceso alcohol menor precio consumo área específico recientemente emitir consulta primero política nacional alcohol malta ser primero país introducir prohibición fumar haber actualizar continuamente regulación publicidad promoción tabaco</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -801,7 +981,12 @@
           <t>Entre las instituciones hay colegios, academias, politécnicos y universidades de ciencias aplicadas. Las diferentes expresiones en distintos idiomas se suman a las ramificaciones. Si bien el vocabulario puede resultar comprensible para las personas familiarizadas con los sistemas locales, a menudo resultará oscuro para los futuros estudiantes o empleadores, lo que socava el valor de los programas, sobre todo más allá de las fronteras nacionales.</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>institución haber colegio academia politécnico universidad ciencia aplicado diferente expresión distinto idioma sumar ramificación bien vocabulario poder resultar comprensible persona familiarizado sistema local menudo resultar oscuro futuro estudiante empleador socava valor programa allá frontera nacional</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -811,7 +996,12 @@
           <t>Mind es una organización benéfica independiente. Estos grupos representan importantes fuentes de información y apoyo para los usuarios de los servicios; muchas organizaciones también presentan sus propias investigaciones, por ejemplo, encuestas sobre las necesidades o el acceso de los usuarios de los servicios. Algunas organizaciones no gubernamentales también brindan servicios de salud mental, desde servicios de grupos de apoyo hasta servicios de atención más regulares para personas que padecen enfermedades mentales o sus cuidadores o familias. El Concordato de Atención de Crisis, lanzado en febrero de 2014, detalla cómo el Gobierno planea mejorar el apoyo de emergencia para las personas en crisis de salud mental en todo el país.</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>mind ser organización benéfico independiente grupo representar importante fuente información apoyo usuario servicio organización presentar propio investigación ejemplo encuesta necesidad acceso usuario servicio alguno organización gubernamental brindar servicio salud mental servicio grupo apoyo servicio atención regular persona padecer enfermedad mental cuidador familia concordato atención crisis lanzado febrero detalla cómo gobierno planear mejorar apoyo emergencia persona crisis salud mental país</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -821,7 +1011,12 @@
           <t>Las rúbricas pretenden ayudar a los profesores a ser más sistemáticos e intencionados en la enseñanza y el aprendizaje de la creatividad y/o el pensamiento crítico. Los ejemplos de planes de clase proporcionados a los profesores del proyecto incluían un mapa de los diferentes pasos de la clase en relación con las subhabilidades de las rúbricas conceptuales. Se pidió a los profesores que hicieran lo mismo con sus propios planes de clase, al menos con los que presentaran al coordinador local del proyecto antes de su posible transmisión a la OCDE. La construcción de un lenguaje profesional en torno a la creatividad y el pensamiento crítico requiere, en realidad, algo más que buenas definiciones y descriptores de las destrezas a desarrollar.</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rúbrica pretender ayudar profesor ser sistemático intencionado enseñanza aprendizaje creatividad pensamiento crítico ejemplo plan clase proporcionado profesor proyecto incluir mapa diferente paso clase relación subhabilidad rúbrica conceptual pedir profesor hacer mismo propio plan clase menos presentar coordinador local proyecto posible transmisión ocde construcción lenguaje profesional torno creatividad pensamiento crítico requerir realidad buena definición descriptor destreza desarrollar</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -831,7 +1026,12 @@
           <t>La responsabilidad de la educación secundaria vocacional se comparte entre dos ministerios, hay múltiples ofertas de cursos y la provisión está dominada por el sector privado. Esto dificulta las generalizaciones estadísticas y el análisis sectorial. Sin embargo, de acuerdo con las tendencias mundiales, el acceso a la educación secundaria superior profesional se ve afectado por la demanda de sus programas y el nivel de recursos disponibles. La educación vocacional es típicamente percibida por la sociedad indonesia como algo para los "fracasos académicos" y las clases más pobres.</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>responsabilidad educación secundario vocacional compartir dos ministerio haber múltiple oferta curso provisión dominado sector privado dificultar generalización estadístico análisis sectorial embargo acuerdo tendencia mundial acceso educación secundario superior profesional ver afectado demanda programa nivel recurso disponible educación vocacional ser típicamente percibido sociedad indonesio fracaso académico clase pobre</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -841,7 +1041,12 @@
           <t>En varios estados y territorios de Australia, Bélgica (Comunidad francesa), en varias provincias y territorios de Canadá, Chile (Evaluación del desempeño) y Nueva Zelanda, por ejemplo, queda a discreción de los líderes y evaluadores escolares seleccionar los instrumentos y herramientas para recabar información dependiendo de los aspectos y criterios de evaluación elegidos y/o de los objetivos de desempeño definidos individualmente. Los instrumentos y las fuentes de información utilizados para reunir pruebas sobre el desempeño de un líder escolar también pueden diferir entre los puestos de liderazgo, los directores escolares y los subdirectores escolares. Aunque los costos y esfuerzos requeridos deben sopesarse con los beneficios de usar múltiples fuentes de información, es esencial reunir una cantidad factible de información precisa, válida, confiable y útil (Glasman y Glasman, 2010). Estas reuniones entre evaluador y evaluado pueden basarse simplemente en una lista de comprobación que examine si se ha demostrado un aspecto de la evaluación (Lashway, 2003).</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>varios territorio australia bélgico comunidad francés varios provincia territorio canadá chile evaluación desempeño nuevo zelanda ejemplo quedar discreción líder evaluador escolar seleccionar instrumento herramienta recabar información depender aspecto criterio evaluación elegido objetivo desempeño definido individualmente instrumento fuente información utilizado reunir prueba desempeño líder escolar poder diferir puesto liderazgo director escolar subdirector escolar aunque costo esfuerzo requerido deber sopesar él beneficio usar múltiple fuente información ser esencial reunir cantidad factible información preciso válido confiable útil glasman glasman reunión evaluador evaluado poder basar él simplemente lista comprobación examinar haber demostrar aspecto evaluación lashway</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -851,7 +1056,12 @@
           <t>La formación en el lugar de trabajo también debería estar sujeta a control de calidad, en forma de arreglos contractuales, inspecciones y autoevaluaciones. Invertir en una educación infantil temprana de alta calidad y en la escolarización inicial, en particular para los niños de entornos socioeconómicamente desfavorecidos, puede ser una estrategia eficaz para garantizar que los niños comiencen con fuerza sus carreras educativas y que las primeras habilidades generen futuras habilidades. Más adelante en la vida, el apoyo financiero dirigido a estudiantes y escuelas desfavorecidos puede mejorar el desarrollo de habilidades. Los gobiernos pueden diseñar incentivos financieros y políticas fiscales favorables que alienten a las personas y los empleadores a invertir en educación y formación posobligatoria. Se puede alentar a las personas a asumir una mayor parte de la carga financiera de la educación terciaria, mientras que a las personas desfavorecidas se les debe garantizar el acceso a las oportunidades educativas a través de subvenciones y préstamos. Si es necesario realizar recortes en el gasto público, estos deben basarse en la relación costo/beneficio a largo plazo de las inversiones públicas alternativas.</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>formación lugar trabajo deber sujeto control calidad forma arreglo contractual inspección autoevaluación invertir educación infantil temprano alto calidad escolarización inicial particular niño entorno socioeconómicamente desfavorecido poder ser estrategia eficaz garantizar niño comiencir fuerza carrera educativo primero habilidad generar futuro habilidad adelante vida apoyo financiero dirigido estudiante escuela desfavorecido poder mejorar desarrollo habilidad gobierno poder diseñar incentivo financiero política fiscal favorable alentar persona empleador invertir educación formación posobligatorio poder alentar persona asumir mayor parte carga financiero educación terciario mientras persona desfavorecido deber garantizar acceso oportunidad educativo través subvención préstamo ser necesario realizar recorte gasto público deber basar él relación costo beneficio largo plazo inversión público alternativo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -861,7 +1071,12 @@
           <t>Estos adultos necesitan una formación ajustada a sus intereses y a sus competencias previamente adquiridas. Por último, las empresas competitivas que desean mejorar las competencias de su personal representan otro grupo de usuarios muy exigente. Un rápido vistazo a las cifras muestra que los centros de FP I también ofrecen formación a grupos no tradicionales. La tabla 8.6 recoge estadísticas oficiales del SAPTE que podrían no incluir la formación no reglada que se imparte en algunos centros de FP y algunas asociaciones poco frecuentes con autoridades locales y ONG en el marco de proyectos patrocinados por donantes internacionales.</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>adulto necesitar formación ajustado interés competencia previamente adquirido último empresa competitivo desear mejorar competencia personal representar grupo usuario exigente rápido vistazo cifra mostrar centro ofrecer formación grupo tradicional tabla recoger estadística oficial sapte poder incluir formación reglado impartir alguno centro alguno asociación frecuente autoridad local ong marco proyecto patrocinado donante internacional</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -871,7 +1086,12 @@
           <t>Los grupos exitosos lograron reducir las tasas de pobreza de más del 80% en la década de 1980 a cerca del 44% en 2007, mientras que para los países rezagados, la tasa de pobreza total se ha mantenido muy por encima del 70% durante todo el período. Tanto la tasa de incidencia como el número de pobres en este grupo de países se redujeron durante este período. Su participación aumentó de aproximadamente el 13 % al 18 % de la población total entre principios de la década de 1980 y 2007, mientras que el porcentaje de su población que vive con menos de $2 al día aumentó de aproximadamente el 16 % a más del 30 %.</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>grupo exitoso lograr reducir tasa pobreza década cerca mientras país rezagado tasa pobreza total haber mantener encima período tasa incidencia número pobre grupo país reducir período participación aumentar aproximadamente población total principio década mientras porcentaje población vivir menos día aumentar aproximadamente</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -881,7 +1101,12 @@
           <t>Jane Chapman, asesora independiente de riesgos del Tavistock and Portman NHS Trust, llevó a cabo una exhaustiva evaluación de la gobernanza y los riesgos de Big White Wall. La evaluación mostró que BWW conlleva un riesgo global bajo para los usuarios, dadas las salvaguardias existentes. Esto podría indicar las diferentes direcciones que están tomando los países en el desarrollo y las prioridades de sus sistemas de salud mental. En Noruega, donde se percibe una escasez de psicólogos y, en particular, de enfermeros y psicólogos en las escuelas, el Ministerio de Sanidad y Servicios Sanitarios ha financiado directamente un aumento del número de psicólogos que trabajan en los municipios.</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>jane chapman asesora independiente riesgo tavistock and portmar nhs trust llevar cabo exhaustivo evaluación gobernanza riesgo big white wall evaluación mostrar bww conllevar riesgo global bajo usuario dado salvaguardia existente poder indicar diferente dirección tomar país desarrollo prioridad sistema salud mental noruega percibir escasez psicólogo particular enfermero psicólogo escuela ministerio sanidad servicio sanitario haber financiar directamente aumento número psicólogo trabajar municipio</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -891,7 +1116,12 @@
           <t>El reto futuro del SNS es ser capaz de mantener la motivación de su plantilla y contener e invertir la fuga de profesionales. Sin embargo, no es probable que el escaso número de enfermeros aumente en un futuro próximo: mientras que el número de licenciados en medicina ha aumentado de forma constante a lo largo del tiempo, el número de licenciados en enfermería ha ido disminuyendo desde 2009. En particular, las mejoras sanitarias y el aumento de la actividad en el SNS se obtuvieron sin recursos adicionales, lo que indica tanto una mejora de la relación calidad-precio como la existencia de grandes ineficiencias en el sistema.</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>reto futuro sns ser ser capaz mantener motivación plantilla contener invertir fuga profesional embargo ser probable escaso número enfermero aumentar futuro próximo mientras número licenciado medicina haber aumentar forma constante largo tiempo número licenciado enfermería haber disminuir particular mejora sanitario aumento actividad sns obtener recurso adicional indicar mejora relación calidad precio existencia grande ineficiencia sistema</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>3</v>
       </c>
     </row>
@@ -901,7 +1131,12 @@
           <t>Otras reformas también podrían mejorar a medio plazo el acceso a un seguro complementario para los hogares con bajos ingresos y su salud (CNAMTS, 2016a), sobre todo fomentando el uso de los datos administrativos existentes sobre ingresos y otros gastos sociales para determinar y verificar el acceso a los vales del AEC. De hecho, experimentos anteriores han demostrado que los hogares que reúnen los requisitos, en su mayoría desempleados de larga duración y jubilados, pueden ser difíciles de alcanzar mediante campañas de información (Guthmuller et al., La sostenibilidad del régimen de AEC podría mejorarse en parte revisando las condiciones de elegibilidad (Cour des comptes, 2015).</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>reforma poder mejorar medio plazo acceso seguro complementario hogar bajo ingreso salud cnamts fomentar uso dato administrativo existente ingreso gasto social determinar verificar acceso val aec hecho experimento anterior haber demostrar hogar reúnir requisito mayoría desempleado largo duración jubilado poder ser difícil alcanzar mediante campaña información guthmuller sostenibilidad régimen aec poder mejorar él parte revisar condición elegibilidad cour des compt</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -911,7 +1146,12 @@
           <t>La Compensación por enfermedad se otorga a adultos de 30 años o más sobre la misma base, excepto que son beneficios por incapacidad permanente (a diferencia del beneficio temporal de tres años como en la Compensación por actividad). Según el Informe Nacional de Salud Pública de Suecia de 2012, los trastornos mentales, incluidas afecciones como la depresión, la esquizofrenia, el síndrome de fatiga crónica, las discapacidades mentales, los trastornos de la personalidad y el abuso de drogas, combinados con los trastornos musculoesqueléticos representan el 76% de todas las nuevas solicitudes de discapacidad entre mujeres, y el 65% de reclamos similares entre hombres en 2006 (Junta Nacional de Salud y Bienestar, 2012). Los problemas más comúnmente diagnosticados entre estas condiciones son la depresión, los trastornos de adaptación, las reacciones al estrés y los trastornos de ansiedad.</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>compensación enfermedad otorgar adulto año mismo base excepto ser beneficio incapacidad permanente diferencia beneficio temporal tres año compensación actividad según informe nacional salud público suecia trastorno mental incluido afección depresión esquizofrenia síndrome fatiga crónico discapacidad mental trastorno personalidad abuso droga combinado trastorno musculoesquelético representar nuevo solicitud discapacidad mujer reclamo similar hombre junta nacional salud bienestar problema comúnmente diagnosticado condición ser depresión trastorno adaptación reacción estrés trastorno ansiedad</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -921,7 +1161,12 @@
           <t>Un ejemplo de la capacidad del sistema para trabajar en la mejora de la eficiencia es el proceso de consolidación de escuelas. Este proceso fue liderado de manera descentralizada por municipios individuales. Los municipios han buscado consolidar sus sistemas escolares para aumentar el rendimiento de los estudiantes al mejorar el entorno de aprendizaje y reducir los gastos en la Folkeskole logrando economías de escala a través de escuelas de mayor tamaño. El sistema nacional reduce las diferencias financieras entre municipios.</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ejemplo capacidad sistema trabajar mejora eficiencia ser proceso consolidación escuela proceso ser liderar manera descentralizado municipio individual municipio haber buscar consolidar sistema escolar aumentar rendimiento estudiante mejorar entorno aprendizaje reducir gasto folkesko él lograr economía escala través escuela mayor tamaño sistema nacional reducir diferencia financiero municipio</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -931,7 +1176,12 @@
           <t>Los ahorros solo fueron estadísticamente significativos para los pacientes del grupo mejorado cuyo nivel inicial de HbAlc era del 10 por ciento o más. La medición de HbAlc es una forma de medir los niveles de glucosa en sangre, un indicador importante para los diabéticos. Para los no diabéticos, una lectura normal estaría en el rango de 4.0 a 5.9 por ciento, para las personas con diabetes, un nivel de HbAlc de 6.5 por ciento se considera un buen control. Sin embargo, este estudio no tuvo en cuenta el costo de la intervención y, por lo tanto, no se pudo evaluar la rentabilidad general. En una línea similar, Testa et al. (Mun-roe et al. (</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ahorro solo ser estadísticamente significativo paciente grupo mejorado cuyo nivel inicial hbalc ser ciento medición hbalc ser forma medir nivel glucós sangre indicador importante diabético diabético lectura normal rango ciento persona diabetes nivel hbalc ciento considerar buen control embargo estudio tener cuenta costo intervención poder evaluar rentabilidad general línea similar testa mun roe</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -941,7 +1191,12 @@
           <t>El proceso podría ser más eficaz si el rendimiento de los nuevos profesores fuera evaluado conjuntamente por el director de la escuela y una autoridad externa cualificada, como el supervisor escolar o el asesor pedagógico regional. Una vez establecidas unas condiciones claras para la evaluación del periodo de prueba, Costa Rica podría introducir el requisito de que todos los profesores deban completar el periodo de prueba de forma satisfactoria antes de ser confirmados en un puesto permanente. En la mayoría de los países, el periodo de prueba suele ir acompañado de un programa estructurado de iniciación.</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>proceso poder ser eficaz rendimiento nuevo profesor ser evaluar conjuntamente director escuela autoridad externo cualificado supervisor escolar asesor pedagógico regional vez establecido condición claro evaluación periodo prueba costa rico poder introducir requisito profesor der completar periodo prueba forma satisfactorio ser confirmar puesto permanente mayoría país periodo prueba soler acompañado programa estructurado iniciación</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -951,7 +1206,12 @@
           <t>La evaluación más reciente registró una tasa de satisfacción del 94 % entre los participantes: el 41 % continuó con su educación, el 15 % encontró empleo a tiempo parcial y el 9 % a tiempo completo (Dobrovoljc et al., Financiado por una de las 36 Oficinas Nacionales de Políticas de Empleo para Personas con Discapacidades). en las subvenciones "Oportunidades para jóvenes" (YO) del Departamento de Trabajo (DOL), los investigadores de salud pública trabajaron con el Centro YO de Eastside de Baltimore para agregar una intervención de salud mental al programa de capacitación laboral del Centro YO. La intervención de salud mental incluyó tres componentes principales: un médico de salud mental en el lugar, un plan de estudios de prevención de la depresión entre compañeros y sesiones de capacitación en salud mental para el personal del centro de empleo (que no tenía educación formal en salud mental). diferencias en los síntomas depresivos o estrategias de afrontamiento después de que los solicitantes de empleo completaron el programa (Tandon et al.,</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>evaluación reciente registrar tasa satisfacción participante continuó educación encontrar empleo tiempo parcial tiempo completo dobrovoljc financiado oficina nacional política empleo persona discapacidad subvención oportunidad joven departamento trabajo dol investigador salud público trabajar centro eastsidir baltimore agregar intervención salud mental programa capacitación laboral centro intervención salud mental incluir tres componente principal médico salud mental lugar plan estudio prevención depresión compañero sesión capacitación salud mental personal centro empleo tener educación formal salud mental diferencia síntoma depresivo estrategia afrontamiento después solicitante empleo completar programa tandon</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -961,7 +1221,12 @@
           <t>En otras palabras, gobernar mediante leyes puede interpretarse fácilmente como una falta de confianza en los profesores, lo que a su vez puede llevarles a sentirse controlados, lo que podría perjudicar su creatividad, motivación y autoestima. Por otra parte, si la calidad de la enseñanza no es suficientemente buena, y los padres y los alumnos no tienen la sensación de que los profesores cumplen la Ley de Educación, la confianza del público en las escuelas puede disminuir. El camino a seguir parece, por tanto, continuar apoyando a los profesores que parecen haber asumido los cuatro principios de la Ley de Educación, y apoyar a las buenas escuelas y profesores como ejemplo para otras escuelas.</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>palabra gobernar mediante ley poder interpretar él fácilmente falta confianza profesor vez poder llevar él sentir él controlado poder perjudicar creatividad motivación autoestima parte calidad enseñanza ser suficientemente buen padre alumno tener sensación profesor cumplir ley educación confianza público escuela poder disminuir camino seguir parecer continuar apoyar profesor parecer haber asumir cuatro principio ley educación apoyar buena escuela profesor ejemplo escuela</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -971,7 +1236,12 @@
           <t>Estas estadísticas también formarán la base de los esfuerzos para mejorar la calidad de la atención médica en Turquía, que ya han estado creciendo en los últimos años. Muchos sistemas de salud de la OCDE separan definitivamente las responsabilidades de administrar y monitorear los servicios de atención médica, y la creación de 4 agencias afiliadas bajo el ministerio es una señal de que Turquía está considerando seriamente los beneficios de una mayor devolución de responsabilidades para el sistema de salud. En el futuro, Turquía podría considerar poner una mayor distancia entre funciones como la acreditación y la evaluación de tecnologías sanitarias y el Ministerio de Salud central, especialmente cuando las actividades de gobernanza de la calidad se aplican tanto a los servicios de salud públicos como a los servicios de salud privados.</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>estadística formar base esfuerzo mejorar calidad atención médico turquía haber crecer último año sistema salud ocde separar definitivamente responsabilidad administrar monitorear servicio atención médico creación agencia afiliada bajo ministerio ser señal turquía considerar seriamente beneficio mayor devolución responsabilidad sistema salud futuro turquía poder considerar poner mayor distancia función acreditación evaluación tecnología sanitario ministerio salud central especialmente actividad gobernanza calidad aplicar servicio salud público servicio salud privado</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -981,7 +1251,12 @@
           <t>En 2014, una media del 77 % de los niños de 3 años estaban matriculados en programas de desarrollo educativo para la primera infancia o en educación preescolar en los países de la UE22 (en comparación con la media de la OCDE del 71 %). Entre 2005 y 2014, la matrícula de niños de 3 años en educación preescolar aumentó del 69 % al 76 %, y la matrícula de niños de 4 años aumentó del 84 % al 89 %, en promedio entre los países con datos para ambos años . En Bélgica, Dinamarca, Francia, Alemania, Italia, Luxemburgo, los Países Bajos, España y el Reino Unido, al menos el 95 % de los niños de 4 años están matriculados en educación infantil.</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>media niño año matriculado programa desarrollo educativo primero infancia educación preescolar país comparación media ocde matrícula niño año educación preescolar aumentar matrícula niño año aumentar promedio país dato ambos año bélgica dinamarca francia alemania italia luxemburgo país bajo españa reino unido menos niño año matriculado educación infantil</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -991,7 +1266,12 @@
           <t>El período de formación también permitió a los docentes y trabajadores discutir temas relacionados con la formación laboral de los estudiantes y mejorar los planes de formación y los métodos de evaluación. Los participantes mejoraron sus habilidades y autoestima, y ​​difundieron conocimientos a otros colegas. Este ejercicio fue evaluado por la Oficina de Información Económica de Finlandia como una de las mejores formas de desarrollar la profesionalidad de los docentes.</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>período formación permitir docente trabajador discutir tema relacionado formación laboral estudiante mejorar plan formación método evaluación participante mejorar habilidad autoestima difundir conocimiento colega ejercicio ser evaluar oficina información económico finlandia mejor forma desarrollar profesionalidad docente</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1001,7 +1281,12 @@
           <t>Desde tiempos prehistóricos, los residentes del Ártico han desarrollado habilidades y conocimientos que les permiten sobrevivir y prosperar en condiciones adversas. Se ha observado que los norteños tienen un buen conocimiento de los asuntos importantes para su sustento y poseen un conocimiento único y diversificado sobre cómo garantizar su bienestar (Megatrends, 2011). Al mismo tiempo, la capacidad de las sociedades árticas para beneficiarse del conocimiento codificado estandarizado y la educación formal ha sido bastante limitada.</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tiempo prehistórico residente ártico haber desarrollar habilidad conocimiento permitir sobrevivir prosperar condición adverso haber observar norteño tener buen conocimiento asunto importante sustento poseer conocimiento único diversificado cómo garantizar bienestar megatrends mismo tiempo capacidad sociedad ártico beneficiar él conocimiento codificado estandarizado educación formal haber ser bastante limitado</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1011,7 +1296,12 @@
           <t>Por lo tanto, es comprensible que el enfoque de línea de pobreza de un dólar por día se haya convertido en el dominante. Sin embargo, tiene debilidades significativas y hay varios tipos de problemas relacionados con su uso que necesitan ser revisados. Dependiendo de cómo se determine la constitución de la canasta y lo que se incluya, la línea de pobreza puede reducirse a lo que muchos pueden considerar un umbral demasiado bajo, o elevarse a lo que otros podrían cuestionar como demasiado generoso.</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ser comprensible enfoque línea pobreza dólar día haber convertir dominante embargo tener debilidad significativo haber varios tipo problema relacionado uso necesitar ser revisado depender cómo determinar constitución canasta incluir línea pobreza poder reducir él poder considerar umbral demasiado bajo elevar él poder cuestionar demasiado generoso</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1021,7 +1311,12 @@
           <t>Si bien persisten los desafíos para brindar resultados de aprendizaje equitativos para los niños y jóvenes de las comunidades indígenas y mejorar los logros en los niveles más altos del sistema educativo, Chile ha logrado la equidad en el acceso a la educación básica. Además, no existen diferencias significativas en la finalización de la primaria entre niños indígenas y no indígenas. Iniciativas específicas como una beca específica (Beca Indfgena Basica y Beca Indfgena Media) han tenido un impacto significativo en el aumento de la asistencia y la reducción de la deserción entre los beneficiarios. Además, el reconocimiento y promoción de las lenguas y culturas indígenas en el sistema educativo se beneficia con la implementación del Programa de Educación Intercultural Bilingüe (PEIB) dirigido a las escuelas que atienden a estudiantes indígenas.</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bien persistir desafío brindar resultado aprendizaje equitativo niño joven comunidad indígena mejorar logro nivel alto sistema educativo chile haber lograr equidad acceso educación básico además existir diferencia significativo finalización primaria niño indígena indígena iniciativa específico beca específico beca indfgena basico beca indfgena medio haber tener impacto significativo aumento asistencia reducción deserción beneficiario además reconocimiento promoción lengua cultura indígena sistema educativo beneficiar implementación programa educación intercultural bilingüe peib dirigido escuela atender estudiante indígena</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1031,7 +1326,12 @@
           <t>Los niños pequeños tienen más probabilidades de estar en situación de riesgo porque sus padres también suelen ser jóvenes con ingresos relativamente bajos, o porque sus madres no tienen trabajo (Bradbury y Jantii, 2001). Las estrategias para aliviar la pobreza infantil varían de un país a otro, y las políticas tienden a promover el empleo (en particular a través de la reforma de la asistencia social de los últimos años) o a proporcionar prestaciones generosas para redistribuir los ingresos entre los pobres. Conseguir que las familias monoparentales trabajen ha sido un objetivo central de la política en varios países en los últimos años, con políticas de "reforma de la asistencia social" en Australia, Canadá, Nueva Zelanda, el Reino Unido y los Estados Unidos, todas dirigidas al empleo entre las familias monoparentales.</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>niño pequeño tener probabilidad situación riesgo padre soler ser joven ingreso relativamente bajo madre tener trabajo bradbury jantii estrategia aliviar pobreza infantil variar país política tender promover empleo particular través reforma asistencia social último año proporcionar prestación generoso redistribuir ingreso pobre conseguir familia monoparental trabajen haber ser objetivo central política varios país último año política reforma asistencia social australia canadá nuevo zelanda reino unido unido dirigido empleo familia monoparental</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1041,7 +1341,12 @@
           <t>Borko et Putnam 1995) En cuanto al impacto de la formación del profesorado en los resultados de los alumnos, es posible subdividir esta cuestión en tres subpreguntas. ¿Cuál es el impacto de la formación del profesorado en los resultados de los alumnos? Este estudio empírico se basa en datos de 50 encuestas estatales sobre políticas, extraídos de la encuesta Schools and Staffing de 1990-1993 y de la Evaluación Nacional del Progreso Educativo (NAEP). Muestra pruebas de que las políticas utilizadas en los distintos Estados americanos para promover la calidad del profesorado (especialmente las relativas a los requisitos y la certificación de la formación del profesorado, así como a la formación continua) pueden estar positivamente relacionadas con mejores resultados de los alumnos.</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>borko putnam cuanto impacto formación profesorado resultado alumno ser posible subdividir cuestión tres subpregunta cuál ser impacto formación profesorado resultado alumno estudio empírico basar dato encuesta estatal política extraído encuesta schools and staffing evaluación nacional progreso educativo naep mostrar prueba política utilizado distinto americano promover calidad profesorado especialmente relativo requisito certificación formación profesorado así formación continuo poder positivamente relacionado mejor resultado alumno</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1051,7 +1356,12 @@
           <t>Para las familias, un trabajo de salario mínimo generalmente no es suficiente para escapar de la pobreza relativa en el umbral del 50%. Sin embargo, los beneficios en el trabajo y/o las tasas de eliminación gradual de beneficios para familias con niños, como en Australia, Irlanda y el Reino Unido, pueden proporcionar un aumento significativo de los ingresos. Los trabajadores monoparentales a tiempo completo con salario mínimo en estos países obtienen ingresos netos iguales o superiores al 60 % de los ingresos medios.</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>familia trabajo salario mínimo generalmente ser suficiente escapar pobreza relativo umbral embargo beneficio trabajo tasa eliminación gradual beneficio familia niño australia irlanda reino unido poder proporcionar aumento significativo ingreso trabajador monoparental tiempo completo salario mínimo país obtener ingreso neto igual superior ingreso medio</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,7 +1371,12 @@
           <t>Más precisamente, se está prestando especial atención a la formación inicial, entre otros aspectos. Los futuros maestros en estos niveles deben obtener títulos de licenciatura de cuatro años, lo que significa una extensión de un año en la formación docente. No obstante, las universidades españolas deberán elaborar los programas de formación inicial del profesorado de acuerdo con las directrices marcadas por el Gobierno español.</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>precisamente prestar especial atención formación inicial aspecto futuro maestro nivel deber obtener título licenciatura cuatro año significar extensión año formación docente obstante universidad español deber elaborar programa formación inicial profesorado acuerdo directriz marcado gobierno español</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1071,7 +1386,12 @@
           <t>Esta inmensa disminución y el liderazgo de la región a nivel mundial se han debido principalmente a la reducción de la pobreza en China e India, ya que solo estos dos países han sacado a 650 millones de personas de la pobreza extrema. La incidencia más alta de pobreza extrema se registra en Asia Meridional y Sudoccidental (28,7 % en 2010), mientras que la más baja se registra en Asia Septentrional y Central (1,0 % en 2011). Cabe señalar que, desde 1990, Asia oriental y nororiental y Asia sudoriental han registrado las reducciones absolutas más rápidas de las tasas de pobreza en comparación con las de otras subregiones.</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>inmenso disminución liderazgo región nivel mundial haber deber principalmente reducción pobreza china india solo dos país haber sacar millón persona pobreza extremo incidencia alto pobreza extremo registrar asia meridional sudoccidental mientras bajo registrar asia septentrional central cabe señalar asia oriental nororiental asia sudoriental haber registrar reducción absoluto rápido tasa pobreza comparación subregión</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1081,7 +1401,12 @@
           <t>Cuanto más temprana sea la privación y más larga sea su duración, mayor será el impacto potencial en el niño. La diferencia entre los dos se ilustra en el siguiente diagrama. El hogar con los ingresos más bajos en la calle vive en el número 1, el segundo hogar más pobre vive en el número 2 y así sucesivamente hasta el hogar más rico en el número 15. En el ejemplo que se da aquí, esto llega a $60,000. En este ejemplo, el ingreso medio es de $40,000 (el ingreso de la casa No. Imagine, por ejemplo, que las dos personas más ricas de la calle, viviendo en las casas No.</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cuanto temprano ser privación largo ser duración mayor ser impacto potencial niño diferencia dos ilustrar siguiente diagrama hogar ingreso bajo calle vivir número segundo hogar pobre vivir número así sucesivamente hogar rico número ejemplo dar aquí llegar ejemplo ingreso medio ser ingreso casa imagine ejemplo dos persona rico calle vivir casa</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1416,12 @@
           <t>Southern Med Review, 4(2), 69. Análisis de series de tiempo de la relación entre desempleo y mortalidad: una encuesta de críticas econométricas y réplicas de los estudios de Brenner. ¿La economía afecta el uso de sustancias en los adolescentes? Reichman, NE (2013). Ciclos económicos, hipertensión y enfermedades cardiovasculares: evidencia del colapso económico de Islandia.</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>southern med review análisis serie tiempo relación desempleo mortalidad encuesta crítica econométrica réplica estudio brenner economía afectar uso sustancia adolescente reichmar ciclo económico hipertensión enfermedad cardiovascular evidenciar colapso económico islandia</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1101,7 +1431,12 @@
           <t>Como resultado, el número de camas se sitúa ahora en torno a la media de la UE, mientras que la duración media de la estancia está muy por debajo de la media de 6,8 días en comparación con los 8 días (2015). Esto, junto con el hecho de que todavía hay muchos hospitales regionales más pequeños, sugiere que hay espacio para racionalizar la red hospitalaria para mejorar la eficiencia, a pesar de la oposición pública que esto probablemente genere (ver Sección 5.2). La cirugía de cataratas ha sido un éxito particular con uno de los porcentajes más altos de casos ambulatorios en la UE (2015). Las amigdalectomías, por el contrario, todavía se realizan exclusivamente en entornos hospitalarios (Figura 14).</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>resultado número cama situar ahora torno media mientras duración medio estancia debajo media día comparación día junto hecho todavía haber hospital regional pequeño sugerir haber espacio racionalizar red hospitalario mejorar eficiencia pesar oposición público probablemente genere ver sección cirugía catarata haber ser éxito particular porcentaje alto caso ambulatorio amigdalectomía contrario todavía realizar exclusivamente entorno hospitalario figurar</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1111,7 +1446,12 @@
           <t>En los países ricos en petróleo, los precios más altos de los combustibles tienen un efecto positivo en el nivel de vida como resultado del aumento de la demanda agregada. En los países importadores de petróleo, un aumento en el precio de los combustibles puede tener un efecto directo en la pobreza a través del consumo de energía y un efecto indirecto a través del aumento de los precios de los productos básicos cuya producción requiere energía. El impacto sobre la pobreza de un aumento en el precio de la energía puede variar según las diferentes ubicaciones geográficas y dependiendo de si un hogar está conectado a la infraestructura de servicios públicos. En los hogares urbanos, la proporción del consumo de energía suele ser mayor en comparación con los hogares rurales.9 Si la infraestructura de servicios públicos es insuficiente, es posible que los hogares ni siquiera estén conectados a fuentes centrales de energía.</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>país rico petróleo precio alto combustible tener efecto positivo nivel vida resultado aumento demanda agregado país importador petróleo aumento precio combustible poder tener efecto directo pobreza través consumo energía efecto indirecto través aumento precio producto básico cuyo producción requerir energía impacto pobreza aumento precio energía poder variar según diferente ubicación geográfico depender hogar conectado infraestructura servicio público hogar urbano proporción consumo energía soler ser mayor comparación hogar rural infraestructura servicio público ser insuficiente ser posible hogar siquiera conectado fuente central energía</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1121,7 +1461,12 @@
           <t>Por lo general, estos pagos por resultados se centran en resultados intermedios, por ejemplo, presión arterial o nivel de glucosa en sangre controlados, y solo en raras ocasiones en medidas de resultados como las tasas de supervivencia. En el sector de pacientes hospitalizados, la participación de los ingresos de los proveedores es mucho menor, con frecuencia alrededor del 0,1 % de los presupuestos hospitalarios y nunca superando el 4 % (Milstein y Schreyogg, 2015). Si bien se puede esperar que los programas P4P incluyan al menos algunas medidas de desempeño o resultados, la mayoría, si no todos, los programas P4P también incluyen pagos ex post más simples vinculados a la prestación de servicios (por ejemplo, finalización de ciertos datos y registro, establecimiento del plan de atención).</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>general pago resultado centrar resultado intermedio ejemplo presión arterial nivel glucós sangre controlado solo rara ocasión medida resultado tasa supervivencia sector paciente hospitalizado participación ingreso proveedor ser menor frecuencia alrededor presupuesto hospitalario nunca superar milstein schreyogg bien poder esperar programa incluir menos alguno medida desempeño resultado mayoría programa incluir pago post simple vinculado prestación servicio ejemplo finalización cierto dato registro establecimiento plan atención</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1131,7 +1476,12 @@
           <t>En segundo lugar, la enseñanza para el examen enfatiza la memorización y un enfoque más pasivo del aprendizaje, ya que los maestros pasan más tiempo desarrollando estrategias para tomar exámenes en lugar de cultivar las habilidades de resolución de problemas de los estudiantes (Kellaghan et al., Al involucrar a los maestros en el desarrollo e implementación de pruebas estandarizadas y capacitar a los maestros sobre cómo usar y analizar de manera efectiva los resultados de las pruebas, puede haber menos riesgo de enseñar para la prueba. Sin embargo, los incentivos adjuntos a los resultados de las pruebas deben construirse cuidadosamente para evitar motivar comportamientos estratégicos como enseñar para la prueba, la investigación es mezclados en cuanto a cómo promover de manera efectiva comportamientos positivos como resultado de incentivos mientras se reducen los comportamientos negativos.</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>segundo lugar enseñanza examen enfatiza memorización enfoque pasivo aprendizaje maestro pasar tiempo desarrollar estrategia tomar examen lugar cultivar habilidad resolución problema estudiante kellaghan involucrar maestro desarrollo implementación prueba estandarizado capacitar maestro cómo usar analizar manera efectivo resultado prueba poder haber menos riesgo enseñar prueba embargo incentivo adjunto resultado prueba deber construir él cuidadosamente evitar motivar comportamiento estratégico enseñar prueba investigación ser mezclar cuanto cómo promover manera efectivo comportamiento positivo resultado incentivo mientras reducir comportamiento negativo</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1141,7 +1491,12 @@
           <t>La variación entre las áreas locales australianas fue evidente en todas las intervenciones y condiciones. También hubo una amplia variación en comparación con otros países. Por ejemplo, las tasas de ingreso hospitalario no quirúrgico fueron el doble en Australia, alrededor de 12 000 por 100 000 habitantes mayores de 15 años, que en España, Portugal y Canadá, donde estuvieron por debajo de 6 000.</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>variación área local australiano ser evidente intervención condición haber amplio variación comparación país ejemplo tasa ingreso hospitalario quirúrgico ser doble australia alrededor habitante mayor año españa portugal canadar debajo</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1151,7 +1506,12 @@
           <t>Los créditos presupuestarios se controlan por ocho áreas programáticas (administración, servicios sanitarios de distrito, servicios sanitarios de urgencia, servicios hospitalarios provinciales, servicios hospitalarios centrales, ciencias de la salud y formación, servicios de apoyo a la atención sanitaria, gestión de instalaciones sanitarias) y luego por partidas (las clasificaciones económicas generales para pagos corrientes son remuneración de empleados, bienes y servicios, intereses y alquiler de terrenos). También hay un seguimiento electrónico más frecuente (mensual y trimestral) por parte del Tesoro Nacional para comprobar que el dinero se ha gastado según lo programado. El objetivo de estas reuniones es comprobar que los fondos se han recibido a tiempo y se han gastado según lo previsto en el presupuesto.</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>crédito presupuestario controlar ocho área programático administración servicio sanitario distrito servicio sanitario urgencia servicio hospitalario provincial servicio hospitalario central ciencia salud formación servicio apoyo atención sanitario gestión instalación sanitario luego partida clasificación económico general pago corriente ser remuneración empleado bién servicio interés alquiler terreno haber seguimiento electrónico frecuente mensual trimestral parte tesoro nacional comprobar dinero haber gastar según programar objetivo reunión ser comprobar fondo haber recibir tiempo haber gastar según previsto presupuesto</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1161,7 +1521,12 @@
           <t>Existen grandes desigualdades en la prevalencia de estas enfermedades crónicas según el nivel educativo. Sin embargo, se observan diferencias en la autovaloración de la salud por estatus socioeconómico: El 82% de las personas del quintil de ingresos más altos declaran tener buena salud, frente al 68% de las del quintil más bajo (Figura 4). Sin embargo, esta diferencia es menor que en la mayoría de los demás países de la UE. Según las estimaciones, más del 30% de la carga global de morbilidad en Dinamarca en 2015 podría atribuirse a factores de riesgo comportamentales, como el tabaquismo, el consumo de alcohol, la dieta y la inactividad física, siendo el tabaquismo y los riesgos metabólicos (por ejemplo, la obesidad y el colesterol alto) los que más contribuyen (IHME.</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>existir grande desigualdad prevalencia enfermedad crónico según nivel educativo embargo observar diferencia autovaloración salud estatus socioeconómico persona quintil ingreso alto declarar tener buen salud frente quintil bajo figura embargo diferencia ser menor mayoría demás país según estimación carga global morbilidad dinamarca poder atribuir él factor riesgo comportamental tabaquismo consumo alcohol dieta inactividad físico ser tabaquismo riesgo metabólico ejemplo obesidad colesterol alto contribuyar ihmir</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1171,7 +1536,12 @@
           <t>También es posible que un titular de maestría tome un año de estudios pedagógicos en la facultad de educación y obtenga una calificación formal de maestro. No solo se espera que los candidatos a maestros se conviertan en expertos en el conocimiento del contenido pedagógico, sino que también deben escribir una disertación basada en la investigación como requisito final para obtener el título de maestría. Los maestros de grado superior se especializan en un área académica de su elección, los maestros de grado primario se especializan en ciencias de la educación.</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ser posible titular maestría tomar año estudio pedagógico facultad educación obtener calificación formal maestro solo esperar candidato maestro convertir experto conocimiento contenido pedagógico sino deber escribir disertación basado investigación requisito final obtener título maestría maestro grado superior especializar área académico elección maestro grado primario especializar ciencia educación</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1181,7 +1551,12 @@
           <t>La agrupación por capacidades en una o unas pocas asignaturas es la forma más flexible de selección. De hecho, en los sistemas con más escuelas académicamente selectivas, el impacto del estatus socioeconómico de los estudiantes y las escuelas en el rendimiento de los estudiantes es más fuerte (OCDE, 2013a, Tabla IV. Los resultados de PISA también muestran que, en la mayoría de los países de la OCDE, el rendimiento de los alumnos es significativamente inferior en los centros en los que la mayoría de los alumnos proceden de entornos desfavorecidos.</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>agrupación capacidad asignatura ser forma flexible selección hecho sistema escuela académicamente selectivo impacto estatus socioeconómico estudiante escuela rendimiento estudiante ser fuerte ocde tabla resultado pisa mostrar mayoría país ocde rendimiento alumno ser significativamente inferior centro mayoría alumno proceder entorno desfavorecido</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1191,7 +1566,12 @@
           <t>Australia Occidental, por ejemplo, ha implementado una revisión obligatoria de todas las muertes que ocurren en hospitales públicos y centros de salud privados que brindan servicios a pacientes públicos. Queensland lleva a cabo una "auditoría de cabecera" anual, donde los médicos recopilan información sobre ciertos elementos de la atención para evaluar si se han cumplido los estándares esperados. A nivel nacional, el Royal Australasian College of Surgeons establece como requisito para participar en el Australian Auditoría de mortalidad quirúrgica de Zelanda como parte del programa de desarrollo profesional continuo de la universidad. El ACSQHC también realiza auditorías para evaluar el cumplimiento de los estándares. La mayoría de los datos se centran en los volúmenes de atención y los recursos dentro del sistema. Los datos clínicos también se recopilan casi exclusivamente a través de registros específicos. (organizados por enfermedad, dirigidos a grupos específicos de población o basados ​​en hospitales).</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>australia occidental ejemplo haber implementar revisión obligatorio muerte ocurrir hospital público centro salud privado brindar servicio paciente público queensland llevar cabo auditoría cabecera anual médico recopilar información cierto elemento atención evaluar haber cumplir estándar esperado nivel nacional royal australasian college surgeons establecer requisito participar australian auditoría mortalidad quirúrgico zelanda parte programa desarrollo profesional continuo universidad acsqhc realizar auditorías evaluar cumplimiento estándar mayoría dato centrar volumen atención recurso dentro sistema dato clínico recopilar casi exclusivamente través registro específico organizado enfermedad dirigido grupo específico población basado hospital</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1201,7 +1581,12 @@
           <t>De hecho, ese fue uno de los objetivos iniciales declarados del software cuando se desarrolló por primera vez. Incluye registros de salida detallados de todos los cálculos del software Povcal, incluidos los parámetros estimados de la curva de Lorenz en cada caso. Llevar las nociones de pobreza de la OCDE a este conjunto de datos en su mayoría no perteneciente a la OCDE requiere extender el marco metodológico de Povcal para derivar la medida de bienestar medio directamente de los parámetros de la curva de Lorenz que estima Povcal a partir de datos de distribución agrupados.</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>hecho ser objetivo inicial declarado software desarrollar primero vez incluir registro salida detallado cálculo software povcal incluido parámetro estimado curva lorenz cada caso llevar noción pobreza ocde conjunto dato mayoría perteneciente ocde requerir extender marco metodológico povcal derivar medida bienestar medio directamente parámetro curva lorenz estimar povcal partir dato distribución agrupado</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1211,7 +1596,12 @@
           <t>El proyecto involucró a 15 clínicas primarias y 239 pacientes. Después de que los pacientes transmitieran información biométrica medida por ellos mismos al sistema de monitoreo a través de la puerta de enlace en una aplicación de teléfono inteligente, los médicos revisaron los datos y dieron retroalimentación directamente a cada persona. Entre el inicio del proyecto y tres meses después, para el grupo de prueba, los niveles de HbAlc disminuyeron en promedio 0,64 puntos porcentuales, de 7,98 a 7,35 puntos porcentuales, mientras que para el grupo de control la caída fue de 0,36 puntos porcentuales.</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>proyecto involucró clínica primario paciente después paciente transmitir información biométrico medido mismo sistema monitoreo través puerta enlace aplicación teléfono inteligente médico revisar dato dar retroalimentación directamente cada persona inicio proyecto tres mes después grupo prueba nivel hbalc disminuir promedio punto porcentual punto porcentual mientras grupo control caída ser punto porcentual</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1221,7 +1611,12 @@
           <t>Casi todos los estudiantes continúan aprendiendo en la educación secundaria superior, más allá de la educación obligatoria. Todo esto se logra en un sistema escolar que brinda amplia autonomía a los líderes escolares y maestros, y se logra con niveles de gasto comparativamente modestos. Las disminuciones continuas en el tamaño de la población en edad escolar desafían a las autoridades a administrar de manera eficiente la red escolar de la nación. La capacidad de la nación para reponer su fuerza laboral docente se ve obstaculizada por condiciones de empleo poco atractivas, una visión poco clara de lo que son las buenas prácticas docentes y qué tipo de capacitación puede promover mejor la buena enseñanza.</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>casi estudiante continuar aprender educación secundario superior allá educación obligatorio lograr sistema escolar brindar amplio autonomía líder escolar maestro lograr nivel gasto comparativamente modesto disminución continuo tamaño población edad escolar desafir autoridad administrar manera eficiente red escolar nación capacidad nación reponer fuerza laboral docente ver obstaculizado condición empleo atractivo visión claro ser buena práctica docente tipo capacitación poder promover mejor buen enseñanza</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1231,7 +1626,12 @@
           <t>De los siete países para los que se puede estimar la pobreza infantil, el Banco Mundial clasifica a Guyana como de ingreso medio-bajo, a Belice, Granada, Jamaica, Santa Lucía y Surinam como de ingreso medio-alto, y a Antigua y Barbuda y Trinidad y Tobago como de ingreso alto. . Sin embargo, ni el ingreso nacional ni la pobreza monetaria explican completamente la variabilidad en los niveles de pobreza infantil. Por ejemplo, aunque Trinidad y Tobago tiene el producto interno bruto per cápita más alto del Caribe, no tiene el nivel más bajo de pobreza infantil.</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>siete país poder estimar pobreza infantil banco mundial clasificar guyana ingreso medio bajo belice granada jamaica santa lucía surinam ingreso medio alto antiguo barbudo trinidad tobago ingreso alto embargo ingreso nacional pobreza monetario explicar completamente variabilidad nivel pobreza infantil ejemplo aunque trinidad tobago tener producto interno bruto per cápita alto caribe tener nivel bajo pobreza infantil</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,7 +1641,12 @@
           <t>Como se discutirá con más detalle más adelante, el impacto directo de las exportaciones sobre la pobreza puede ser adicional a su efecto de reducción de la pobreza, dependiendo del tipo de exportaciones, a través de su impacto general de mejora del crecimiento. La evidencia a nivel agregado presta apoyo definitivo a la proposición de que las exportaciones juegan un papel especial en la reducción de la pobreza (ver figura 26). El gráfico indica que los índices de pobreza disminuyen cuando aumentan las exportaciones reales per cápita.</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>discutir detalle adelante impacto directo exportación pobreza poder ser adicional efecto reducción pobreza depender tipo exportación través impacto general mejora crecimiento evidencia nivel agregado prestar apoyo definitivo proposición exportación jugar papel especial reducción pobreza ver figurar gráfico indicar índice pobreza disminuir aumentar exportación real per cápita</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1656,12 @@
           <t>Esto significa que las personas/hogares a los que les falta cierto bien o bien duradero se ven privados de ese bien o bien duradero solo si el motivo de la falta es que no pueden permitírselo. (Véase, por ejemplo, de Neubourg et al 2012a, Guio, 2009, Guio et al, 2009, Whelan and MaTtre, 2012, Nolan and Whelan, 2010, Fusco et al, 2011 y Fusco et al, 2013). Permite identificar a los niños individuales sobre la base de si sufren pobreza monetaria, carencias multidimensionales, ambas o ninguna de ellas. Esto permite explorar la distribución subyacente del consumo o del ingreso y las relaciones entre privación, privación múltiple y pobreza monetaria.</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>significar persona hogar faltar cierto bien bien duradero ver privado bien bien duradero solo motivo falta ser poder permitírselo véar ejemplo neubourg guio guio whelan and mattre nolan and whelan fusco fusco permite identificar niño individual base sufrir pobreza monetario carencia multidimensional ambos ninguno permitir explorar distribución subyacente consumo ingreso relación privación privación múltiple pobreza monetario</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1261,7 +1671,12 @@
           <t>Se espera que satisfaga las demandas de mano de obra de la economía, brinde igualdad de oportunidades educativas para todos y promueva la unidad nacional en la sociedad plural de Malasia. La educación en Malasia está supervisada por dos ministerios gubernamentales: el Ministerio de Educación para asuntos hasta el nivel secundario y el Ministerio de Educación Superior para la educación terciaria. La principal legislación que rige la educación es la Ley de Educación de 1996.</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>esperar satisfagar demanda mano obra economía brinde igualdad oportunidad educativo promueva unidad nacional sociedad plural malasia educación malasia supervisado dos ministerio gubernamental ministerio educación asunto nivel secundario ministerio educación superior educación terciario principal legislación regir educación ser ley educación</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1271,7 +1686,12 @@
           <t>L' instauration de droits de scolarite universels, paraleloment a des prets remboursables en fonction des ressources, pourrait aporter une solution &amp; ces problemes. Ce Document de travail se rapporte a VEtude economique de l'OCDE de la Slovenie 2011 (www.oecd.org/eco/etudes/Slovenie). El uso de dichos datos por parte de la OCDE es sin perjuicio del estado de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional. Sin embargo, el sistema enfrenta desafíos importantes.</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>instauration droit scolarite universels paraleloment des pret remboursabl fonction des ressourz pourrait aporter une solution ces problem document travail rapportir vetude economique ocde slovenie www oecd org eco etud slovenie uso dicho dato parte ocde ser perjuicio alto golán jerusalén asentamiento israelí cisjordania según término derecho internacional embargo sistema enfrentar desafío importante</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1281,7 +1701,12 @@
           <t>Kazajstán reaccionó rápidamente e introdujo un programa de obras públicas, junto con actividades de capacitación y pasantías (consulte la sección 4 anterior). Protegen los ingresos de los pobres y, al mismo tiempo, invierten en la construcción de infraestructura o la prestación de servicios sociales. Son especialmente apropiados en una situación de alto desempleo.</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>kazajstán reaccionar rápidamente introducir programa obra público junto actividad capacitación pasantía consultar sección anterior proteger ingreso pobre mismo tiempo invertir construcción infraestructura prestación servicio social ser especialmente apropiado situación alto desempleo</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1291,7 +1716,12 @@
           <t>Abordamos los problemas del idioma de instrucción en las escuelas en términos de esfuerzos para conservar los idiomas heredados y asegurar que los estudiantes adquieran los idiomas nacionales de comercio y educación superior. También abordamos la educación indígena, enfocándonos en los esfuerzos para aumentar el control indígena sobre la educación y las nuevas formas de usar y transmitir ese conocimiento indígena y las formas de enseñar y aprender, ya sea dentro o fuera de los sistemas escolares formales. Y, por último, analizamos los problemas de rendimiento de los estudiantes, centrándonos especialmente en la brecha de género entre mujeres y hombres y en el bajo rendimiento continuo de los estudiantes indígenas en gran parte del norte.</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abordamos problema idioma instrucción escuela término esfuerzo conservar idioma heredado asegurar estudiante adqueír idioma nacional comercio educación superior abordamos educación indígén enfocándono esfuerzo aumentar control indígén educación nuevo forma usar transmitir conocimiento indígén forma enseñar aprender ser dentro sistema escolar formal último analizar problema rendimiento estudiante centrándono especialmente brecha género mujer hombre bajo rendimiento continuo estudiante indígena gran parte norte</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1301,7 +1731,12 @@
           <t>Los enfoques comunitarios de la medicina y la educación médica también beneficiarían a la región y mejorarían los resultados de aprendizaje de los estudiantes. Los estudiantes de medicina pasarán mucho menos tiempo en los hospitales y mucho más tiempo en las comunidades. Los estudiantes aprenderán desde una etapa temprana a trabajar en equipos multidisciplinarios junto a enfermeras, trabajadores sociales, psicólogos y otros profesionales de la salud afines.</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>enfoque comunitario medicina educación médico beneficiariar región mejorar resultado aprendizaje estudiante estudiante medicina pasar menos tiempo hospital tiempo comunidad estudiante aprender etapa temprano trabajar equipo multidisciplinario junto enfermera trabajador social psicólogo profesional salud afín</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1311,7 +1746,12 @@
           <t>En Finlandia, por ejemplo, la mayor parte de la variación de rendimiento observada se da dentro de los centros escolares y no entre ellos, lo que indica que los centros tienen niveles de rendimiento similares y no seleccionan a los alumnos por su capacidad académica. Las diferencias en el entorno socioeconómico de los centros explican una pequeña proporción de las ya pequeñas diferencias de rendimiento entre centros, lo que sugiere que hay poca segregación por motivos socioeconómicos. Las economías no miembros de la OCDE se incluyen a efectos comparativos.</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>finlandia ejemplo mayor parte variación rendimiento observado dar dentro centro escolar indicar centro tener nivel rendimiento similar seleccionar alumno capacidad académico diferencia entorno socioeconómico centro explicar pequeño proporción pequeño diferencia rendimiento centro sugerir haber segregación motivo socioeconómico economía miembro ocde incluir efecto comparativo</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1321,7 +1761,12 @@
           <t>En los Países Bajos, los servicios de hospitalización también son gratuitos una vez que se alcanza el deducible general anual. Cuando se trata como un paciente privado en un hospital público o privado, Medicare cubre una proporción reducida de los costos y el costo restante a menudo lo paga un seguro de salud privado o de su propio bolsillo. En 2011-2012, los pacientes públicos representaron el 51 % de los ingresos hospitalarios y los pacientes cubiertos por seguros de salud privados el 39 %4 (Instituto Australiano de Salud y Bienestar, 2013).</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>país bajo servicio hospitalización ser gratuito vez alcanzar deducible general anual tratar paciente privado hospital público privado medicare cubrir proporción reducido costo costo restante menudo pagar seguro salud privado propio bolsillo paciente público representar ingreso hospitalario paciente cubierto seguro salud privado instituto australiano salud bienestar</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1331,7 +1776,12 @@
           <t>Durante ese periodo, el gasto por alumno en los niveles primario, secundario y postsecundario no terciario aumentó en la mayoría de los países de la OCDE (un 19% de media en toda la OCDE), con un incremento medio del gasto del 15% y un ligero descenso del número de alumnos (3%), debido a que las cohortes que llegan a la edad escolar son más reducidas (OCDE, 2014). Sin embargo, como se ha señalado anteriormente, las diferencias en la calidad de los sistemas educativos pueden dar lugar a diferencias significativas en el nivel de competencias alcanzado por personas con el mismo nivel educativo. Según los resultados de la Encuesta sobre las Competencias de los Adultos, la magnitud es tal que los titulados universitarios de países con sistemas educativos de bajo rendimiento tienen niveles de competencias similares a los de los estudiantes que solo han alcanzado la educación secundaria en los países con mejores resultados (Figura 1.1).</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>periodo gasto alumno nivel primario secundario postsecundario terciario aumentar mayoría país ocde medio ocde incremento medio gasto ligero descenso número alumno debido cohorte llegar edad escolar ser reducido ocde embargo haber señalar anteriormente diferencia calidad sistema educativo poder dar lugar diferencia significativo nivel competencia alcanzado persona mismo nivel educativo según resultado encuesta competencia adulto magnitud ser tal titulado universitario país sistema educativo bajo rendimiento tener nivel competencia similar estudiante solo haber alcanzar educación secundario país mejor resultado figurar</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1341,7 +1791,12 @@
           <t>Redes de pares tenc Los pocos sistemas de América Latina y Medio Oriente escala. La tabla indica dónde, entre todos los docentes, un determinado docente se beneficiaría de una sola mejor práctica, en comparación con aquellos que se benefician de cinco o diez tan importantes. La Tabla 2.1 muestra el puntaje de un docente en la profesionalidad docente que se espera que clasifique si se benefició de las prácticas que la OCDE identifica o se encuentra entre el tercio inferior de todas las profesiones y entornos laborales.</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>red par tenc sistema américa latino medio oriente escalar tabla indicar dónde docente determinado docente beneficiar solo mejor práctico comparación aquel beneficiar cinco diez importante tabla mostrar puntaje docente profesionalidad docente esperar clasificar beneficiar práctica ocde identifico encontrar tercio inferior profesión entorno laboral</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1351,7 +1806,12 @@
           <t>Varios países de América Latina y África han intentado, con la fuerte ayuda de los donantes, formalizar los títulos de propiedad de la tierra siguiendo el argumento de De Soto, a pesar de que De Soto ha ofrecido poca evidencia real de que la formalización de los títulos de propiedad en realidad conduzca a un mayor acceso al crédito. y por lo tanto a la reducción de la pobreza en el mundo en desarrollo. Según la defensora legal Murtaza Jaffer (citado en Bourbeau, 2001, pp. Los pobres pronto venden sus intereses, regresando una vez más a los asentamientos no planificados y la desesperación).</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>varios país américa latino áfrica haber intentar fuerte ayuda donant formalizar título propiedad tierra seguir argumento soto pesar soto haber ofrecer evidencia real formalización título propiedad realidad conduzca mayor acceso crédito reducción pobreza mundo desarrollo según defensora legal murtaza jaffer citado bourbeau pobre pronto vender interés regresar vez asentamiento planificado desesperación</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1361,7 +1821,12 @@
           <t>Se debe dar prioridad a una serie de áreas políticas clave. Primero, es importante atraer candidatos de alta calidad a la profesión y garantizar que los mejores líderes escolares trabajen en las escuelas más desfavorecidas. Chile necesita mejorar el perfil del liderazgo escolar. Una estructura de carrera diferenciada con su propia escala salarial podría asegurar niveles de remuneración adecuados, significativamente superiores a los de los docentes y similares a otros profesionales del sector público con niveles de responsabilidad similares.</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>deber dar prioridad serie área política clave primero ser importante atraer candidato alto calidad profesión garantizar mejor líder escolar trabajar escuela desfavorecido chile necesitar mejorar perfil liderazgo escolar estructura carrera diferenciado propio escala salarial poder asegurar nivel remuneración adecuado significativamente superior docente similar profesional sector público nivel responsabilidad similar</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1371,7 +1836,12 @@
           <t>Hay una sobreoferta de formación docente inicial que tiene una calidad desigual y las oportunidades de desarrollo profesional carecen tanto de estructura como de un enfoque basado en la escuela. De manera similar, los líderes escolares y otros líderes educativos no están bien preparados, apoyados o reconocidos, y su rol carece de un enfoque en la mejora educativa. Han emprendido un programa aprobado de preparación docente o su equivalente en otro lugar.</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>haber sobreoferta formación docente inicial tener calidad desigual oportunidad desarrollo profesional carecer estructura enfoque basado escuela manera similar líder escolar líder educativo bien preparado apoyado reconocido rol carecer enfoque mejora educativo haber emprender programa aprobado preparación docente equivalente lugar</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1381,7 +1851,12 @@
           <t>En conjunto, el tiempo dedicado por los jóvenes de 15 años a la instrucción en la escuela y el tiempo de instrucción autodeclarado fuera de la escuela (43 horas) es ligeramente inferior a la media de la OCDE (44 horas). Panorama de la Educación 2016: Indicadores de la OCDE. Tabla D 1.1, liltn://dx.doi.org/10.1787/cag-2016-cn. Los hombres representan el 18% de la mano de obra en educación secundaria inferior y solo el 3% en educación primaria, ambas cifras por debajo de la media de la OCDE y la UE.</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>conjunto tiempo dedicado joven año instrucción escuela tiempo instrucción autodeclarado escuela horas ser ligeramente inferior media ocde hora panorama educación indicador ocde tablo liltn doi org cag hombre representar mano obra educación secundario inferior solo educación primario ambos cifra debajo media ocde</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1391,7 +1866,12 @@
           <t>Pero las tendencias de la pobreza por edad han ido cambiando. La OCDE (2008) informó que las personas que han visto los mayores aumentos de ingresos en las últimas dos décadas son las que se encuentran en edad de jubilación (55-75), mientras que los jóvenes (entre 16 y 24 años) y los niños han visto disminuir sus ingresos relativos. Como consecuencia, la tasa de pobreza de los pensionistas ha disminuido, con caídas muy grandes en algunos países, y ahora está por debajo del promedio de población de la OCDE. Para los jubilados mayores, aquellos mayores de 75 años, el riesgo de pobreza también sigue siendo relativamente alto, 1,5 veces el promedio de la población, y las mujeres mayores solteras están particularmente en riesgo.</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>tendencia pobreza edad haber cambiar ocde informar persona haber ver mayor aumento ingreso último dos década ser encontrar edad jubilación mientras joven año niño haber ver disminuir ingreso relativo consecuencia tasa pobreza pensionista haber disminuir caída grande alguno país ahora debajo promedio población ocde jubilado mayor aquel mayor año riesgo pobreza seguir ser relativamente alto vez promedio población mujer mayor soltera particularmente riesgo</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1401,7 +1881,12 @@
           <t>Si bien se encuentra que las escuelas con bajo rendimiento suelen utilizar los comentarios de las visitas de inspección para mejorar la calidad, hay indicios de que las escuelas etiquetadas como de calidad básica a menudo se involucran menos en el uso de información evaluativa para obtener información sobre sus propios desafíos y planificar la mejora (Inspección holandesa de Educación, 2013). La evaluación y evaluación en los Países Bajos operan en un contexto en el que la mayoría de las escuelas son "propiedad" de organismos no públicos (por ejemplo, comunidades religiosas o profesionales que persiguen filosofías pedagógicas particulares) e incluso las escuelas públicas suelen ser administradas por juntas semiautónomas, similares a los del sector no público (ver Capítulo 1). Como se describió anteriormente, el tamaño y la composición de los consejos escolares, así como las competencias de evaluación de los miembros del consejo escolar, son muy variables. En su informe 2011/2012 sobre el Estado de la Educación en los Países Bajos, la Inspección señala que "la garantía de calidad es un área en la que muchas juntas escolares podrían mejorar" (Inspección de Educación de los Países Bajos, 2013, p. 27).</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>bien encontrar escuela bajo rendimiento soler utilizar comentario visita inspección mejorar calidad haber indicio escuela etiquetada calidad básico menudo involucrar menos uso información evaluativo obtener información propio desafío planificar mejora inspección holandés educación evaluación evaluación país bajo operar contexto mayoría escuela ser propiedad organismo público ejemplo comunidad religioso profesional persigar filosofía pedagógico particular incluso escuela público soler ser administrada junto semiautónoma similar sector público ver capítulo describir anteriormente tamaño composición consejo escolar así competencia evaluación miembro consejo escolar ser variable informe educación país bajo inspección señalar garantía calidad ser área junta escolar poder mejorar inspección educación país bajo</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1411,7 +1896,12 @@
           <t>Por tanto, es fundamental que los responsables políticos ayuden a los adultos a mejorar las competencias y cualificaciones educativas que necesitan en el mercado laboral. Esto incluye ayudarles a encontrar empleo, por ejemplo mediante orientación profesional y tutoría, y también motivar a los empresarios para que inviertan en su mano de obra, y especialmente en la población desfavorecida. Los adultos con un mayor nivel educativo tienen más posibilidades de estar empleados y ganar salarios más altos.</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ser fundamental responsable político ayudar adulto mejorar competencia cualificación educativo necesitar mercado laboral incluir ayudar él encontrar empleo ejemplo mediante orientación profesional tutoer motivar empresario invertir mano obra especialmente población desfavorecido adulto mayor nivel educativo tener posibilidad empleado ganar salario alto</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1421,7 +1911,12 @@
           <t>Un sistema de atención primaria funcional en el que el médico de familia actúe como centro coordinador de la atención a pacientes complejos y garantice que los medicamentos y los regímenes de tratamiento se revisan adecuadamente a lo largo del tiempo contribuirá a garantizar que se atienden las necesidades de atención complejas derivadas de las enfermedades crónicas. Un buen ejemplo de programa comunitario en Corea es el proyecto de registro de Gwang Myeong, centrado en el tratamiento de la diabetes y la hipertensión (véase el recuadro 3.1). Este proyecto piloto está dirigido por el Gobierno Provincial de Gyeonggi y en él colaboran el Ministerio de Salud y Bienestar, el Centro Coreano de Control de Enfermedades, el Gobierno Provincial de Gyeonggi, el centro de salud metropolitano de Gwang Myeong, instituciones provinciales de atención médica y farmacias, y el centro de control de la hipertensión/diabetes mellitus.</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sistema atención primario funcional médico familia actuar centro coordinador atención paciente complejo garantizar medicamento regímén tratamiento revisar adecuadamente largo tiempo contribuir garantizar atender necesidad atención complejo derivado enfermedad crónico buen ejemplo programa comunitario corea ser proyecto registro gwang myeong centrado tratamiento diabetes hipertensión véar recuadro proyecto piloto dirigido gobierno provincial gyeonggi colaborar ministerio salud bienestar centro coreano control enfermedad gobierno provincial gyeonggi centro salud metropolitano gwang myeong institución provincial atención médico farmacia centro control hipertensión diabet mellitus</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1431,7 +1926,12 @@
           <t>De acuerdo con el último informe PISA sobre el bienestar de los estudiantes (OCDE, 2017), el 44 % de los estudiantes informaron que esperan completar la educación terciaria en promedio en los países de la OCDE. Solo el 26 % de los estudiantes en el cuartil inferior del índice ESCS de PISA informaron que esperan completar la universidad, en comparación con el 66 % de los estudiantes del índice ESCS superior en promedio en los países de la OCDE. En Alemania, los Países Bajos, Eslovenia, menos del 10% de los estudiantes informaron que esperaban obtener un título universitario.</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>acuerdo último informe pís bienestar estudiante ocde estudiante informar esperar completar educación terciario promedio país ocde solo estudiante cuartil inferior índice escs pisa informar esperar completar universidad comparación estudiante índice escs superior promedio país ocde alemania país bajo eslovenia menos estudiante informar esperar obtener título universitario</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1441,7 +1941,12 @@
           <t>En otras palabras, no se puede determinar la dirección causal de esta asociación. Sin embargo, en más de un tercio de los países y economías, incluidos muchos que compensan las desventajas en las escuelas asignando más docentes a esas escuelas, los docentes de las escuelas más desfavorecidas están menos calificados y/o tienen menos experiencia que los de las escuelas más aventajadas (Gráfico 1.2). A veces, las mismas políticas que canalizan más recursos a las escuelas de alta necesidad podrían, de hecho, disuadir a los maestros con más experiencia de enseñar en estas escuelas. Donde las reglas establecidas centralmente para la promoción y la movilidad de los docentes privilegian las preferencias de los docentes y dan prioridad a los docentes de mayor antigüedad, y donde el salario de los docentes no varía mucho entre las escuelas o entre los docentes con experiencia y calificaciones similares, parece difícil evitar atraer una alta concentración. de los profesores más experimentados en las escuelas más prestigiosas.</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>palabra poder determinar dirección causal asociación embargo tercio país economía incluido compensar desventaja escuela asignar docente escuela docente escuela desfavorecido menos calificado tener menos experiencia escuela aventajado gráfico veces mismo política canalizar recurso escuela alto necesidad poder hecho disuadir maestro experiencia enseñar escuela regla establecido centralmente promoción movilidad docente privilegiar preferencia docente dar prioridad docente mayor antigüedad salario docente variar escuela docente experiencia calificación similar parecer difícil evitar atraer alto concentración profesor experimentado escuela prestigioso</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1451,7 +1956,12 @@
           <t>Sin embargo, las poblaciones rurales, así como los aborígenes y los isleños del Estrecho de Torres, obtienen peores resultados académicos y tienen menos acceso a la enseñanza superior que la media nacional. Una alta proporción de niños están matriculados en educación infantil, y la escuela es general hasta los 16 años. La posibilidad de elegir escuela está muy extendida en comparación con la zona de la OCDE. Los itinerarios de secundaria y superior tienen como objetivo preparar a los estudiantes para la integración social y la entrada en el mercado laboral. Las tasas de éxito en la enseñanza secundaria superior se sitúan en la media de la OCDE.</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>embargo población rural así aborígén isleño estrecho torre obtener peor resultado académico tener menos acceso enseñanza superior media nacional alto proporción niño matriculado educación infantil escuela ser general año posibilidad elegir escuela extendido comparación zona ocde itinerario secundaria superior tener objetivo preparar estudiante integración social entrada mercado laboral tasa éxito enseñanza secundario superior situar media ocde</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1461,7 +1971,12 @@
           <t xml:space="preserve">Se basa en los nueve años de educación básica (seis de primaria y tres de secundaria). Los alumnos que acceden al segundo ciclo de secundaria pueden ir a un centro de orientación más académica o a un centro de formación profesional. Esto se aplica tanto en el sistema islámico como en el no islámico. La enseñanza secundaria superior formal comprende la enseñanza general (sekolah menengah atas, o SMA), la enseñanza profesional (sekolah menengah kejuruan, o SMK), las escuelas secundarias superiores islámicas (madrasah aliyah, o MA) y la enseñanza profesional islámica (madrasah aliyah kejuruan, o MAK). Este capítulo se centra principalmente en la enseñanza secundaria superior académica, mientras que el capítulo 5 trata de la formación profesional. Se está trabajando en el desarrollo de colegios comunitarios y vías alternativas de acceso a la enseñanza superior. </t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>basar nueve año educación básico seis primaria tres secundario alumno acceder segundo ciclo secundaria poder centro orientación académico centro formación profesional aplicar sistema islámico islámico enseñanza secundario superior formal comprender enseñanza general sekolah menengah ata sma enseñanza profesional sekolah menengah kejuruan smk escuela secundario superior islámico madrasah aliyah enseñanza profesional islámico madrasah aliyah kejuruan mak capítulo centrar principalmente enseñanza secundario superior académico mientras capítulo tratar formación profesional trabajar desarrollo colegio comunitario vía alternativo acceso enseñanza superior</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1471,7 +1986,12 @@
           <t>El gasto farmacéutico puede reducirse haciendo un uso más eficaz de las prácticas de contratación pública y fomentando la prescripción de genéricos. Hungría informa entre las tasas de mortalidad más altas tanto para los cánceres prevenibles (p. ej., cáncer de pulmón) como para los cánceres tratables (p. ej., cáncer de mama, de cuello uterino y de colon). Existen programas nacionales para promover la detección periódica del cáncer de mama y de cuello uterino, pero las tasas de detección entre las mujeres del grupo de edad objetivo siguen siendo bajas.</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>gasto farmacéutico poder reducir él hacer uso eficaz práctica contratación público fomentar prescripción genérico hungría informar tasa mortalidad alto cáncer prevenibl cáncer pulmón cáncer tratabl cáncer mama cuello uterino colon existir programa nacional promover detección periódico cáncer mama cuello uterino tasa detección mujer grupo edad objetivo seguir ser baja</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1481,7 +2001,12 @@
           <t>De media, por cada 1 % de crecimiento adicional del gasto sanitario antes de la crisis se produjo una caída del 0,9 % del gasto sanitario después de la crisis. Esta recesión ha sido en muchos aspectos más profunda, ha durado más y ha experimentado una recuperación más débil que recesiones anteriores como las vividas en las décadas de 1970 y 1980 (OCDE 2012). Los patrones del gasto sanitario también han sido notablemente diferentes durante la recesión del psot-2008.</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>medio cada crecimiento adicional gasto sanitario crisis producir caída gasto sanitario después crisis recesión haber ser aspecto profundo haber durar haber experimentar recuperación débil recesión anterior vivida década ocde patrón gasto sanitario haber ser notablemente diferente recesión psot</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1491,7 +2016,12 @@
           <t>Una investigación basada en la Encuesta sobre Insuficiencia Cardíaca en Israel, que examinó la calidad de la atención a los pacientes con insuficiencia cardíaca, descubrió que las tasas de mortalidad aumentaban bruscamente tras el alta hospitalaria. La mortalidad intrahospitalaria fue del 4,7%; sin embargo, la mortalidad aumentó al 19% a los seis meses del alta y al 28% al año del alta (Garty et al., El elevado riesgo de mortalidad a largo plazo indica la necesidad urgente de desarrollar estrategias de tratamiento más eficaces para los pacientes con ICC dados de alta del hospital.</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>investigación basado encuesta insuficiencia cardíacar israel examinar calidad atención paciente insuficiencia cardíaco descubrir tasa mortalidad aumentar bruscamente tras alto hospitalaria mortalidad intrahospitalario ser embargo mortalidad aumentar seis mes alta año alta garty elevado riesgo mortalidad largo plazo indicar necesidad urgente desarrollar estrategia tratamiento eficaz paciente icc dado alta hospital</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1501,7 +2031,12 @@
           <t>Este informe examina la situación en Canadá con respecto a la pobreza infantil, las privaciones materiales que afectan a las familias y el bienestar de los niños, niñas y adolescentes con base en indicadores disponibles para el análisis comparativo. También informa sobre el desarrollo de políticas para comprender las tendencias de la pobreza infantil e identificar algunas direcciones de políticas que pueden ayudar a reducir la pobreza infantil en el futuro. El informe está organizado de la siguiente manera.</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>informe examinar situación canadá respecto pobreza infantil privación material afectar familia bienestar niño niñas adolescente base indicador disponible análisis comparativo informar desarrollo política comprender tendencia pobreza infantil identificar alguno dirección política poder ayudar reducir pobreza infantil futuro informe organizado siguiente manera</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1511,7 +2046,12 @@
           <t>Aunque la titularidad pública de los centros de salud sigue siendo la norma en muchos consejos comarcales, especialmente en las zonas rurales y escasamente pobladas, el número de proveedores privados aumentó significativamente tras las reformas recientes. En algunos consejos de condado son actores importantes; en Estocolmo, por ejemplo, aproximadamente la mitad de todos los proveedores de atención primaria son privados. Aunque no existen evaluaciones sólidas del impacto de las reformas, se han informado algunos impactos positivos. Se informa que las reformas recientes aumentaron la capacidad de atención primaria, redujeron los tiempos de espera y mejoraron el acceso, incluso para los grupos de bajos ingresos (Anell et al., A pesar del aumento de proveedores de atención primaria, la escasez relativa persiste en las áreas rurales porque la expansión se ha producido principalmente en áreas más ricas, urbanas y más densamente pobladas Las reformas también han traído un mayor enfoque en la calidad, la eficiencia y la transparencia, ejemplificado por la medición y publicación de información sobre el desempeño para apoyar la elección del paciente (por ejemplo, a través del sitio web Open Comparisons), e incentivos a los consejos comarcales y municipios para la mejora de la calidad.</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>aunque titularidad público centro salud seguir ser norma consejo comarcal especialmente zona rural escasamente poblado número proveedor privado aumentar significativamente tras reforma reciente alguno consejo condado ser actor importante estocolmo ejemplo aproximadamente mitad proveedor atención primario ser privado aunque existir evaluación sólido impacto reforma haber informar alguno impacto positivo informar reforma reciente aumentar capacidad atención primario reducir tiempo espera mejorar acceso incluso grupo bajo ingreso anell pesar aumento proveedor atención primario escasez relativo persistir área rural expansión haber producir principalmente área rico urbano densamente poblado reforma haber traer mayor enfoque calidad eficiencia transparencia ejemplificado medición publicación información desempeño apoyar elección paciente ejemplo través sitio web open comparisons incentivo consejo comarcal municipio mejora calidad</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1521,7 +2061,12 @@
           <t>Aunque varios estudios analizan la dinámica de la pobreza infantil en países individuales (por ejemplo, Ashworth et al. Sin embargo, una perspectiva transnacional proporciona puntos de referencia para los resultados nacionales. También ayuda a explorar los efectos de diversos entornos de políticas o, al menos, formular preguntas relevantes sobre efectos de política (ver Valletta 2006) El estudio analiza el alcance de la movilidad a lo largo de los deciles de la distribución del ingreso, investiga si el crecimiento del ingreso entre los niños ha sido favorable a los pobres y si la movilidad del ingreso puede haber compensado la desigualdad de ingresos entre los niños.</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>aunque varios estudio analizar dinámica pobreza infantil país individual ejemplo ashworth embargo perspectiva transnacional proporcionar punto referencia resultado nacional ayuda explorar efecto diverso entorno política menos formular pregunta relevante efecto política ver valletta estudio analizar alcance movilidad largo decil distribución ingreso investigar crecimiento ingreso niño haber ser favorable pobre movilidad ingreso poder haber compensar desigualdad ingreso niño</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,7 +2076,12 @@
           <t>El gobierno decidió recientemente establecer una formación especializada para enfermeras en cuidados crónicos fuera de los hospitales, con estas enfermeras muy probablemente empleadas en prácticas de médicos generales y servicios de salud municipales. Las regiones también invirtieron en centros de especialidades múltiples llamados 'Casas de salud', que incluyen médicos de cabecera (que también actúan como coordinadores de la atención), especialistas y fisioterapeutas, aunque han surgido dificultades para contratar médicos de cabecera (consulte la Sección 5.2). El sistema de atención primaria parece estar resistiendo bien a pesar de las reducciones en la actividad de atención aguda descritas anteriormente, aunque las hospitalizaciones evitables por ciertas afecciones son más altas que el promedio de la UE (consulte la Sección S.3).</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>gobierno decidir recientemente establecer formación especializado enfermera cuidado crónico hospital enfermera probablemente empleado práctica médico general servicio salud municipal región invertir centro especialidad múltiple llamado casa salud incluir médico cabecera actuar coordinador atención especialista fisioterapeuta aunque haber surgir dificultad contratar médico cabecera consultar sección sistema atención primario parecer resistir bien pesar reducción actividad atención agudo descrita anteriormente aunque hospitalización evitabl cierto afección ser alto promedio consultar sección</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1541,7 +2091,12 @@
           <t>Estos números se basan en una medida estándar de pobreza relativa, definida como aquellos por debajo del 50% del ingreso medio disponible. La tasa de pobreza relativa se define como la proporción de personas que viven en hogares con menos del 50 % de la renta mediana disponible (ajustada por el tamaño de la familia y después de impuestos y transferencias) de la población total. El Gini, probablemente la medida de desigualdad de ingresos más utilizada, es particularmente sensible a los cambios en la mitad de la distribución de ingresos, mientras que las otras medidas se enfocan más en las colas de la distribución.</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>número basar medida estándar pobreza relativo definido aquel debajo ingreso medio disponible tasa pobreza relativo definir proporción persona vivir hogar menos renta mediano disponible ajustado tamaño familia después impuesto transferencia población total gini probablemente medida desigualdad ingreso utilizado ser particularmente sensible cambio mitad distribución ingreso mientras medida enfocar cola distribución</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,7 +2106,12 @@
           <t>También se espera que las escuelas promuevan una buena salud mental para los estudiantes y permanezcan alertas a los problemas de salud mental. La recomendación 12 de NICE Public Health (NICE, 2008), por ejemplo, ofrece pautas sobre el bienestar social y emocional en la educación primaria, afirmando que â Las escuelas y las autoridades locales deben asegurarse de que los maestros y demás personal estén capacitados para identificar cuándo los niños en la escuela muestran signos de ansiedad o problemas sociales y emocionales. Deben ser capaces de discutir los problemas con los padres y cuidadores y desarrollar un plan para tratarlos, involucrando a especialistas cuando sea necesario". La iniciativa Targeted Mental Health in Schools (TaMHS), que se llevó a cabo entre 2008 y 2011, fue respaldada con GBP 60 millones de fondos del Departamento de Niños, Escuelas y Familias. El programa tenía como objetivo abordar la prestación de apoyo emocional y de salud mental en las escuelas para niños de 5 a 13 años, y se descubrió que había tenido resultados mixtos al final del programa de tres años.</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>esperar escuela promover buen salud mental estudiante permanecer alerta problema salud mental recomendación nizar public health nice ejemplo ofrecer pauta bienestar social emocional educación primario afirmar escuela autoridad local deber asegurar él maestro demá personal capacitar identificar cuándo niño escuela mostrar signo ansiedad problema social emocional deber ser capaz discutir problema padre cuidador desarrollar plan tratar él involucrar especialista ser necesario iniciativo targeted mental health schools tamhs llevar cabo ser respaldar gbp millón fondo departamento niño escuela familia programa tener objetivo abordar prestación apoyo emocional salud mental escuela niño año descubrir haber tener resultado mixto final programa tres año</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1561,7 +2121,12 @@
           <t>En 2011, el número promedio de pacientes con ESRF en todos los países fue de 101 por 100 000 habitantes, con una amplia variación entre países. Países como Singapur e Islandia informaron menos de 70 pacientes con ESRF por cada 100 000 habitantes, mientras que Portugal y los Estados Unidos informaron más de 150. El número de pacientes con ESRF aumentó en todos los países durante el período 2000 a 2011. En promedio, la cantidad de pacientes aumentó un 36 % durante el período de 11 años, pero en países como Corea, la tasa casi se duplicó durante este período.</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>número promedio paciente esrf país ser habitante amplio variación país país singapur islandia informar menos paciente esrf cada habitante mientras portugal unidos informar número paciente esrf aumentar país período promedio cantidad paciente aumentar período año país corea tasa casi duplicar período</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1571,7 +2136,12 @@
           <t>Hasta hace poco, solo un comprador importante se había integrado verticalmente con los proveedores. Esta situación ha surgido principalmente debido a un consenso político en torno a la inconveniencia de una creciente integración vertical en el contexto holandés. Propuestas que podrían expandir los niveles actuales de integración vertical - por ejemplo, la creación de una cooperativa propuesta en 2008 que involucra a una aseguradora de salud regional, una cooperativa de médicos regional y otros profesionales de la salud, para hacerse cargo de un hospital local en dificultades financieras- han recibido una fuerte oposición en el Parlamento, debido a preocupaciones sobre la autonomía profesional y la libre elección de proveedor por parte de los usuarios. Las aseguradoras son libres de competir por los inscritos mediante ajustes a sus primas calificadas por la comunidad y esto ha resultado en una fuerte competencia de precios entre las aseguradoras. La mayor competencia por los afiliados a través de los precios de las pólizas se tradujo rápidamente en una presión financiera sobre las aseguradoras, cuya reacción general ha sido doble (Schut y Van de Ven, 2011). En primer lugar, ha habido una mayor experimentación y adopción de medidas para reducir los costos operativos y de gestión.</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>hacer solo comprador importante haber integrar verticalmente proveedor situación haber surgir principalmente debido consenso político torno inconveniencia creciente integración vertical contexto holandés propuesta poder expandir nivel actual integración vertical ejemplo creación cooperativo propuesta involucrar aseguradora salud regional cooperativa médico regional profesional salud hacer él cargo hospital local dificultad financiero haber recibir fuerte oposición parlamento debido preocupación autonomía profesional libre elección proveedor parte usuario aseguradora ser libre competir inscrito mediante ajuste prima calificado comunidad haber resultar fuerte competencia precio aseguradora mayor competencia afiliado través precio póliza traducir rápidamente presión financiero aseguradora cuyo reacción general haber ser doble schut ver primero lugar haber haber mayor experimentación adopción medida reducir costo operativo gestión</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1581,7 +2151,12 @@
           <t>Además, los Objetivos Nacionales de Calidad iniciados en 2016 establecieron un marco para mejorar la calidad y la eficiencia de la atención en todos los entornos. El sistema de salud danés es eficaz en la prevención de la mortalidad por causas tratables, como la cardiopatía isquémica y el accidente cerebrovascular. La tasa de letalidad de los pacientes con infarto de miocardio se encuentra entre las más bajas de la UE.</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>además objetivo nacional calidad iniciado establecer marco mejorar calidad eficiencia atención entorno sistema salud danés ser eficaz prevención mortalidad causa tratabl cardiopatía isquémico accidente cerebrovascular tasa letalidad paciente infarto miocardio encontrar baja</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1591,7 +2166,12 @@
           <t>El sistema sanitario está obligado a prestar la misma atención a todos los ciudadanos, independientemente de su lugar de residencia. Para ello se necesita un gran número de centros sanitarios pequeños y rentables, capaces de prestar cuidados intensivos, ya que los gastos de transporte de pacientes y personal son muy elevados.182 Debido a su pequeño tamaño y aislamiento, las ciudades y pueblos de Groenlandia suelen tener que ser autosuficientes y son muy vulnerables a los factores externos.18 En Groenlandia no existen proveedores privados de servicios sanitarios, pero en Nuuk se ofrecen servicios privados de odontología, fisioterapia, psicoterapia y tratamiento del alcoholismo y la drogadicción. En el pasado, las complicaciones perinatales, las enfermedades infecciosas agudas y crónicas y las lesiones dominaban como principales causas de morbilidad.184 Recientemente, las enfermedades crónicas y relacionadas con el estilo de vida y las discapacidades dominan los problemas de morbilidad, a pesar de que las enfermedades "antiguas" no han disminuido a los mismos niveles bajos que en los países occidentales.</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>sistema sanitario obligado prestar mismo atención ciudadano independientemente lugar residencia necesitar gran número centro sanitario pequeño rentable capaz prestar cuidado intensivo gasto transporte paciente personal ser elevado debido pequeño tamaño aislamiento ciudad pueblo groenlandia soler tener ser autosuficiente ser vulnerable factor externo groenlandia existir proveedor privado servicio sanitario nuuk ofrecer servicio privado odontología fisioterapia psicoterapio tratamiento alcoholismo drogadicción pasado complicación perinatal enfermedad infeccioso agudo crónica lesión dominar principal causa morbilidad recientemente enfermedad crónico relacionado estilo vida discapacidad dominar problema morbilidad pesar enfermedad antiguo haber disminuir mismo nivel bajo país occidental</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1601,7 +2181,12 @@
           <t>La Comisión ha subrayado recientemente la importancia de la educación y los conocimientos sanitarios para mejorar los resultados sanitarios a lo largo de la vida, con especial atención a los adolescentes y los jóvenes. Las resoluciones sobre determinados grupos de población, como los emigrantes, los adolescentes y jóvenes, las personas mayores o los residentes urbanos y rurales, han reconocido las necesidades sanitarias de esos grupos y las implicaciones conexas para los sistemas de salud. Las resoluciones también han llamado la atención sobre los efectos negativos de la emigración de trabajadores altamente cualificados en el desarrollo de los países de origen, a menudo en los sectores relacionados con la salud, y han pedido una contratación ética de los trabajadores sanitarios.</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>comisión haber subrayar recientemente importancia educación conocimiento sanitario mejorar resultado sanitario largo vida especial atención adolescente joven resolución determinado grupo población emigrante adolescente joven persona mayor residente urbano rural haber reconocer necesidad sanitario grupo implicación conexa sistema salud resolución haber llamar atención efecto negativo emigración trabajador altamente cualificado desarrollo país origen menudo sector relacionado salud haber pedir contratación ético trabajador sanitario</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1611,7 +2196,12 @@
           <t>La atención primaria no basta por sí sola para lograr el impacto necesario para mejorar la salud urbana. Además de la atención primaria, las políticas y la legislación pertinente deben prestar la debida atención a cuestiones más amplias de salud pública. La asignación presupuestaria para los servicios de salud pública debería aumentarse del 4% actual al 8%, como se ha hecho en los países vecinos.</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>atención primario bastar solo lograr impacto necesario mejorar salud urbano además atención primario política legislación pertinente deber prestar debido atención cuestión amplio salud público asignación presupuestario servicio salud público deber aumentar él actual haber hacer país vecino</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1621,7 +2211,12 @@
           <t>El capítulo revisa las políticas sociales existentes y los intentos recientes de encontrar mejores formas de asignar los recursos públicos a los más necesitados, en particular las familias con niños. Concluye con un resumen de los principales desafíos y sugiere vías de reforma para desarrollar un sistema de protección social que apoyaría a la población en edad de trabajar de manera más efectiva. La fuerte desaceleración económica subsiguiente en 2009 no generó un aumento significativo en las tasas generales de pobreza ya que los ajustes del mercado laboral implicaron una reducción de las horas de trabajo en lugar de despidos (Capítulo 1) y porque los pagos de pensiones aumentaron casi un 50 % desde 2007 (Capítulo 4) .'</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>capítulo revisar política social existente intento reciente encontrar mejor forma asignar recurso público necesitado particular familia niño concluir resumen principal desafío sugerir vía reforma desarrollar sistema protección social apoyar población edad trabajar manera efectivo fuerte desaceleración económico subsiguiente generar aumento significativo tasa general pobreza ajuste mercado laboral implicar reducción hora trabajo lugar despido capítulo pago pensión aumentar casi capítulo</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +2226,12 @@
           <t>Si bien el control del VIH/SIDA y de las enfermedades infecciosas absorbió alrededor del 20% de los compromisos de AOD en la década de 1990 (12% y 8%, respectivamente), estos programas representaron el 51% de todos los compromisos en 2005-2006 (35% y 16%, respectivamente). En primer lugar, la lucha contra determinadas enfermedades (especialmente las enfermedades contagiosas) es un bien público global y, por tanto, requiere respuestas globales y eficaces. En segundo lugar, centrarse en una enfermedad específica puede movilizar la opinión pública y los recursos de una forma más eficaz.</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>bien control vih sida enfermedad infeccioso absorber alrededor compromiso aod década respectivamente programa representar compromiso respectivamente primero lugar lucha determinado enfermedad especialmente enfermedad contagiosa ser bien público global requerir respuesta global eficaz segundo lugar centrar él enfermedad específico poder movilizar opinión público recurso forma eficaz</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1641,7 +2241,12 @@
           <t>Para estimar la carga financiera de los EDA en Alemania, Stark et al (2011) basaron el estudio de costes en un modelo procedente del sistema sanitario estadounidense. Sus estimaciones cuantificaron en 816 millones de euros los costes de la asistencia sanitaria relacionados con los EDA surgidos en entornos de asistencia ambulatoria, es decir, el 0,22% del gasto sanitario alemán en 2011. Casi el 60% se debió a hospitalizaciones, el 11% a visitas a urgencias y el 21% restante a gastos realizados en cuidados de larga duración. Sin embargo, estos costes son solo aproximaciones.</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>estimar carga financiero eda alemania stark basar estudio coste modelo procedente sistema sanitario estadounidense estimación cuantificar millón euros coste asistencia sanitario relacionado eda surgido entorno asistencia ambulatorio decir gasto sanitario alemán casi deber hospitalización visitas urgencia restante gasto realizado cuidado largo duración embargo coste ser solo aproximación</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1651,7 +2256,12 @@
           <t>Además de caracterizar el estado de la población, por ejemplo, al realizar las evaluaciones económicas de las intervenciones de control del cáncer, POHEM suele utilizar una muestra de simulación de un millón de individuos y reúne información sobre los factores de riesgo, la incidencia de la enfermedad por edad, sexo y tipo de célula, la distribución por estadios en el momento del diagnóstico y los enfoques diagnósticos y terapéuticos "estándar" o típicos utilizados. Además, se requieren datos sobre la progresión de la enfermedad tras el diagnóstico inicial (en función de la edad, el sexo y el estadio en el momento del diagnóstico), además de las pautas de seguimiento de la práctica, el tratamiento en la recaída y los cuidados terminales. Por lo tanto, se utilizan 23 conjuntos de datos diferentes que incluyen diversos registros de cáncer y registros hospitalarios, datos de asociaciones farmacéuticas, encuestas de salud de la población, estudios de cribado y ensayos clínicos, etc. (</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>además caracterizar población ejemplo realizar evaluación económico intervención control cáncer pohem soler utilizar muestra simulación millón individuo reúnir información factor riesgo incidencia enfermedad edad sexo tipo célula distribución estadio momento diagnóstico enfoque diagnóstico terapéutico estándar típico utilizado además requerir dato progresión enfermedad tras diagnóstico inicial función edad sexo estadio momento diagnóstico además pauta seguimiento práctica tratamiento recaída cuidado terminal utilizar conjunto dato diferente incluir diverso registro cáncer registro hospitalario dato asociación farmacéutico encuesta salud población estudio cribado ensayo clínico etc</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1661,7 +2271,12 @@
           <t>Al mismo tiempo, el hecho de que los jóvenes que no estudian ni trabajan contribuyen cada vez más a la pobreza general en los países con las tasas de pobreza más bajas plantea la cuestión de si este indicador mide la pobreza real o simplemente la vulnerabilidad a la pobreza. Por lo tanto, la configuración de las arquitecturas y responsabilidades políticas e institucionales debe diferir en consecuencia. Si bien esta edición del Panorama Social considera solo algunos de los aspectos básicos de este tipo de medición de la pobreza, estos son suficientes para ilustrar las potencialidades y desafíos que presentan las mediciones multidimensionales.</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>mismo tiempo hecho joven estudiar trabajar contribuir cada vez pobreza general país tasa pobreza bajo plantear cuestión indicador medir pobreza real simplemente vulnerabilidad pobreza configuración arquitectura responsabilidad política institucional deber diferir consecuencia bien edición panorama social considerar solo alguno aspecto básico tipo medición pobreza ser suficiente ilustrar potencialidad desafío presentar medición multidimensional</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1671,7 +2286,12 @@
           <t>Sus médicos también son contratados en el extranjero (porque no hay facultad de medicina en Luxemburgo) y están envejeciendo. Aunque los residentes luxemburgueses tienden a regresar tras su educación y formación profesional en el extranjero, esto crea una fuerte dependencia de los países vecinos y una competencia por los escasos profesionales sanitarios. Las medidas de contención de costes se centraron en limitar el gasto hospitalario mediante la introducción de presupuestos hospitalarios globales, la sustitución de productos farmacéuticos por alternativas menos costosas y la congelación temporal de las tarifas de los proveedores de servicios.</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>médico ser contratar extranjero haber facultad medicina luxemburgo envejecer aunque residente luxemburgués tender regresar tras educación formación profesional extranjero creer fuerte dependencia país vecino competencia escaso profesional sanitario medida contención coste centrar limitar gasto hospitalario mediante introducción presupuesto hospitalario global sustitución producto farmacéutico alternativa menos costoso congelación temporal tarifa proveedor servicio</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1681,7 +2301,12 @@
           <t>Esto representa un aumento significativo de las estimaciones de una década antes. Los problemas de sobrepeso y obesidad entre niños y adolescentes aumentan considerablemente el riesgo de tener sobrepeso y obesidad en la edad adulta. Casi todos los aspectos del sistema público (planificación, organización, administración y regulación) están muy centralizados, mientras que el sector privado está fragmentado. Bajo el nuevo sistema nacional de salud propuesto (Cuadro 1), habrá un comprador (la Organización de Seguros de Salud), un proveedor público autónomo y varios proveedores privados que tendrán la opción de contratar con la Organización de Seguros de Salud. Las relaciones comprador-proveedor entre los sectores público y privado ya existen en el sistema actual de forma limitada cuando el sector público compra servicios, principalmente sobre la base de pago por servicio, de proveedores privados.</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>representar aumento significativo estimación década problema sobrepeso obesidad niño adolescente aumentar considerablemente riesgo tener sobrepeso obesidad edad adulto casi aspecto sistema público planificación organización administración regulación centralizado mientras sector privado fragmentado bajo nuevo sistema nacional salud propuesto cuadro haber comprador organización seguro salud proveedor público autónomo varios proveedor privado tener opción contratar organización seguro salud relación comprador proveedor sector público privado existir sistema actual forma limitado sector público comprar servicio principalmente base pago servicio proveedor privado</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1691,7 +2316,12 @@
           <t>Los pacientes asegurados públicamente con ciertas condiciones médicas y discapacidades están exentos o pagan copagos reducidos en atención primaria ambulatoria, contactos de especialistas ambulatorios, pruebas de laboratorio clínico, productos farmacéuticos y anteojos y/o lentes de contacto. Las personas que se benefician de una pensión de invalidez están totalmente cubiertas para el tratamiento de enfermedades y durante el embarazo, excepto algunos medicamentos designados y homeopáticos, que no están cubiertos o tienen una tarifa menor. Las personas mayores están exentas de copagos por productos farmacéuticos. Para estas personas, el copago por mes está basado en los ingresos del hogar y está limitado al 10% de los costos de un servicio médico.</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>paciente asegurado públicamente cierto condición médico discapacidad exento pagar copago reducido atención primario ambulatorio contacto especialista ambulatorio prueba laboratorio clínico producto farmacéutico anteojo lent contacto persona beneficiar pensión invalidez totalmente cubierto tratamiento enfermedad embarazo excepto alguno medicamento designado homeopático cubierto tener tarifa menor persona mayor exento copago producto farmacéutico persona copago mes basado ingreso hogar limitado costo servicio médico</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1701,7 +2331,12 @@
           <t>El gráfico 1.4 muestra cuánto influyó cada fuente de ingreso en la variación del ingreso per cápita de los hogares por debajo de la línea de pobreza en países donde las tasas de pobreza han disminuido significativamente en los últimos años. En los países donde disminuyó la pobreza, el ingreso laboral representó la mitad o más del cambio en el ingreso per cápita total. Así, en este episodio más reciente de reducción de la pobreza, el mercado laboral ha sido uno de los principales impulsores del repunte.</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>gráfico mostrar cuánto influir cada fuente ingreso variación ingreso per cápita hogar debajo línea pobreza país tasa pobreza haber disminuir significativamente último año país disminuir pobreza ingreso laboral representar mitad cambio ingreso per cápita total así episodio reciente reducción pobreza mercado laboral haber ser principal impulsor repunte</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1711,7 +2346,12 @@
           <t>Disponer de información detallada sobre la dinámica de la percepción de prestaciones de SA es crucial para el diseño de redes de seguridad social eficaces. El número de beneficiarios proporciona información sobre la cobertura de las prestaciones de último recurso y su papel en la reducción de la pobreza o como estabilizadores automáticos en tiempos de crisis económica. Las tasas de transición de las prestaciones indican si las variaciones en las tasas de percepción a lo largo del tiempo se deben principalmente a cambios en las entradas o en las salidas y, por tanto, posiblemente si las políticas para reducir la percepción de prestaciones funcionan mejor cuando se centran en reducir las entradas o en promover las salidas. Otros parámetros políticos centrales, como los niveles de las prestaciones y el diseño de las medidas de activación, deberían depender de quién recibe las prestaciones y durante cuánto tiempo. Esta sección, al igual que el resto del documento, se centra en la dinámica de la percepción de prestaciones de la SA desde una perspectiva longitudinal.</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>disponer información detallado dinámica percepción prestación ser crucial diseño red seguridad social eficaz número beneficiario proporcionar información cobertura prestación último recurso papel reducción pobreza estabilizador automático tiempo crisis económico tasa transición prestación indicar variación tasa percepción largo tiempo deber principalmente cambio entrada salida posiblemente política reducir percepción prestación funcionar mejor centrar reducir entrada promover salida parámetro político central nivel prestación diseño medida activación deber depender quién recibir prestación cuánto tiempo sección igual resto documento centrar dinámica percepción prestación perspectiva longitudinal</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1721,7 +2361,12 @@
           <t>En primer lugar, necesitan saber realmente que las instituciones financieras ofrecen dichas pólizas a tasas razonables, particularmente para clientes de bajos ingresos, ya que el valor de la anualidad disminuye a medida que aumentan las tasas de interés y aumenta con la disminución de la esperanza de vida.31 Los propietarios de viviendas también deben sentirse capaces para hacer frente a la burocracia que plantearía la conversión de su valor acumulado de la vivienda. El eje y muestra las reducciones porcentuales en el riesgo de pobreza para los mayores de 65 años y medido con referencia al 60% del ingreso equivalente del hogar extraído de la encuesta SHARE. Los activos financieros abarcan cuentas de depósito, bonos, acciones, fondos mutuos de inversión, seguros de vida y activos financieros y de inversión que incluyen pensiones.32 Basándose en dos fuentes principales, esta sección analiza dicha riqueza financiera y el papel que desempeña en los ingresos de jubilación adecuados.</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>primero lugar necesitar saber realmente institución financiero ofrecer dicho póliza tasa razonable particularmente cliente bajo ingreso valor anualidad disminuir medida aumentar tasa interés aumentar disminución esperanza vida propietario vivienda deber sentir él capaz hacer frente burocracia plantear conversión valor acumulado vivienda eje mostrar reducción porcentual riesgo pobreza mayor año medido referencia ingreso equivalente hogar extraído encuesta share activo financiero abarcar cuenta depósito bono acción fondo mutuo inversión seguro vida activo financiero inversión incluir pensión basar él dos fuente principal sección analizar dicho riqueza financiero papel desempeñar ingreso jubilación adecuado</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1731,7 +2376,12 @@
           <t>Los modelos más comunes y su composición básica de pago se enumeran a continuación. Por ejemplo, las Organizaciones de Salud Familiar (capitación combinada, FFS y P4P) y los Grupos de Salud Familiar (FFS combinados y P4P) representan alrededor del 55% de los médicos de atención primaria (Tabla 2.4). Además, algunos incentivos se pagan periódicamente (por ejemplo, una vez al año), mientras que otros se pagan cada vez que se brinda un servicio específico. La elegibilidad para algunos incentivos se basa en el paciente (es decir, el médico recibe un pago por haber brindado un servicio específico a un paciente individual), mientras que para otros incentivos, la elegibilidad se basa en el desempeño de todos los pacientes registrados en toda la práctica (es decir, el médico recibe un pago por haber alcanzado un nivel objetivo predefinido basado en una cantidad de servicios, una cantidad de pacientes o un porcentaje de pacientes elegibles que recibieron el servicio).</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>modelo común composición básico pago enumerar continuación ejemplo organización salud familiar capitación combinado ffs grupo salud familiar ffs combinado representar alrededor médico atención primario tabla además alguno incentivo pagar periódicamente ejemplo vez año mientras pagar cada vez brindar servicio específico elegibilidad alguno incentivo basar paciente ser decir médico recibir pago haber brindar servicio específico paciente individual mientras incentivo elegibilidad basar desempeño paciente registrado práctica decir médico recibir pago haber alcanzar nivel objetivo predefinido basado cantidad servicio cantidad paciente porcentaje paciente elegibl recibir servicio</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1741,7 +2391,12 @@
           <t>En Australia, por ejemplo, el programa de Centros de Prevención e Intervención Precoz de la Psicosis (EPPIC) se amplió a los jóvenes para mejorar su acceso a la atención de salud mental. La motivación para hacerlo surgió de los resultados de una encuesta según la cual el 25% de las personas que declaran padecer trastornos mentales en Australia tienen su primer episodio de enfermedad mental antes de los 12 años, y el 64% antes de los 21, y que existía un gran vacío de tratamiento para este grupo. Por poner un ejemplo de Finlandia, cuando la información de las encuestas puso de manifiesto la existencia de grupos con una tasa de suicidio especialmente elevada, la prevención del suicidio se adaptó adecuadamente a estos grupos y contribuyó con éxito a reducir la tasa de suicidio. Las inversiones en encuestas dirigidas a la población son más fructíferas si dichas encuestas se utilizan para promover el acceso a un tratamiento adecuado, lo que requiere inversión y reflexión en torno a unas buenas vías de derivación y tratamiento.</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>australia ejemplo programa centro prevención intervención precoz psicosis eppic ampliar joven mejorar acceso atención salud mental motivación hacer él surgir resultado encuesta según persona declarar padecer trastorno mental australia tener primero episodio enfermedad mental año existir gran vacío tratamiento grupo poner ejemplo finlandia información encuesta poner manifiesto existencia grupo tasa suicidio especialmente elevado prevención suicidio adaptar adecuadamente grupo contribuir éxito reducir tasa suicidio inversión encuesta dirigido población ser fructífero dicho encuesta utilizar promover acceso tratamiento adecuado requerir inversión reflexión torno buena vía derivación tratamiento</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1751,7 +2406,12 @@
           <t>Los ODM (lanzados en 2000) también reunieron los estándares existentes en diferentes indicadores para proponer un conjunto armonizado de indicadores de los cuales la pobreza monetaria era solo un elemento. En la Agenda 2030 para el Desarrollo Sostenible, el consenso mundial ha cambiado para ver la pobreza como multidimensional. Los precursores de este cambio conceptual incluyen (1) escritos académicos como los de Amartya Sen (1990, 1991), (2) aportes de personas pobres y organizaciones no gubernamentales, consultas que conducen a los Objetivos de Desarrollo Sostenible, (3) una cada vez más visible literatura académica sobre la medición de la pobreza multidimensional, y (4) el liderazgo pionero de países como Colombia, México, China, Sudáfrica, Bután, Pakistán y otros en el uso de estadísticas de pobreza multidimensional para complementar las medidas monetarias y orientar las políticas. Informado por este consenso emergente, el documento fundamental de los ODS Transformar nuestro mundo: la Agenda 2030 para el Desarrollo Sostenible identifica, en su segunda oración, el desafío global de reducir la pobreza en "todas sus formas y dimensiones", como el principal desafío de nuestro tiempo.</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>odm lanzado reunir estándar existente diferente indicador proponer conjunto armonizado indicador pobreza monetario ser solo elemento agenda desarrollo sostenible consenso mundial haber cambiar ver pobreza multidimensional precursor cambio conceptual incluir escrito académico amartya sen aporte persona pobre organización gubernamental consulta conducir objetivo desarrollo sostenible cada vez visible literatura académico medición pobreza multidimensional liderazgo pionero país colombia méxico chino sudáfrico bután pakistán uso estadística pobreza multidimensional complementar medida monetario orientar política informado consenso emergente documento fundamental ods transformar mundo agenda desarrollo sostenible identificar segundo oración desafío global reducir pobreza forma dimensión principal desafío tiempo</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,7 +2421,12 @@
           <t>El vínculo entre la atención primaria de la salud y los resultados de salud para los aborígenes y los isleños del Estrecho de Torres en Australia". Un informe para la Oficina de Salud de los Aborígenes y los Isleños del Estrecho de Torres, Departamento de Salud y Envejecimiento. Pueblos indígenas, pobreza y desarrollo humano en América Latina 1994-2004 Nueva York, NY: Palgrave McMillan.</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vínculo atención primario salud resultado salud aborígén isleño estrecho torre australia informe oficina salud aborígén isleño estrecho torre departamento salud envejecimiento pueblo indígena pobreza desarrollo humano américa latina nueva york palgrave mcmillar</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1771,7 +2436,12 @@
           <t>En este sentido, lograr una distribución igualitaria del capital humano es similar a lograr una distribución igualitaria de los activos físicos mediante una distribución favorable a los pobres de los ingresos incrementales. Ambos son procesos que requieren tiempo. Sin embargo, permitir que más personas adquieran más capital humano (facilitándoles el acceso a la educación y la formación) puede ser menos conflictivo que destinar más ingresos incrementales a los pobres para que aumenten sus activos físicos. En este sentido, la adquisición de capital humano puede constituir una vía más fácil para lograr una distribución más igualitaria de los bienes.</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>lograr distribución igualitario capital humano ser similar lograr distribución igualitario activo físico mediante distribución favorable pobre ingreso incremental ambos ser proceso requerir tiempo embargo permitir persona adqueír capital humano facilitándol acceso educación formación poder ser menos conflictivo destinar ingreso incremental pobre aumentar activo físico adquisición capital humano poder constituir vía fácil lograr distribución igualitario bien</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,7 +2451,12 @@
           <t xml:space="preserve">Sin embargo, el valor de la transferencia como proporción del consumo total de los hogares sigue siendo muy bajo. En los hogares beneficiarios pertenecientes al quintil más pobre, el MB representa sólo el 7% del consumo total, lo que representa lo inadecuado del valor de la prestación26. No es de extrañar, por tanto, que el impacto del MB en la reducción de la pobreza sea limitado. La baja cobertura y los bajos valores de las transferencias limitan la eficacia de la prestación. La cobertura es extremadamente baja y más del 80% de los más pobres están excluidos del MB específico. </t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>embargo valor transferencia proporción consumo total hogar seguir ser bajo hogar beneficiario perteneciente quintil pobre representar sólo consumo total representar inadecuado valor prestación ser extrañar impacto reducción pobreza ser limitar bajo cobertura bajo valor transferencia limitar eficacia prestación cobertura ser extremadamente bajo pobre excluido específico</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1791,7 +2466,12 @@
           <t>El porcentaje de población con algún nivel de carencia en el trabajo y la seguridad social fue del 84% en 2010, lo que demuestra que esta dimensión requiere una atención especial del gobierno y un aumento en la cobertura del sistema de seguridad social. La población indígena presenta la mayor brecha de carencias (ver cuadro 3). Por último, la brecha de privación laboral de los indígenas se redujo del 32,7% en 2006 al 15,6% en 2010. Esta reducción no puede interpretarse de la misma manera como una tasa de recuento (es decir, una reducción en el número de personas pobres), pero lo importante es que muestra que el nivel (severidad) de la pobreza multidimensional en el país ha disminuido.</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>porcentaje población alguno nivel carencia trabajo seguridad social ser demostrar dimensión requerir atención especial gobierno aumento cobertura sistema seguridad social población indígén presentar mayor brecha carencia ver cuadro último brecha privación laboral indígena reducir reducción poder interpretar él mismo manera tasa recuento ser decir reducción número persona pobre importante ser mostrar nivel severidad pobreza multidimensional país haber disminuir</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1801,7 +2481,12 @@
           <t>Costa Rica y Paraguay, los "otros ingresos" explicaron gran parte del aumento de los ingresos de los hogares pobres, principalmente a través de la renta imputada. En el caso de Ecuador, los ingresos por pensiones y transferencias evitaron que la pobreza aumentara entre 2015 y 2017 (véase el gráfico II.7). Los ingresos por transferencias en los hogares pobres aumentaron en casi todos los países.</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>costa rico paraguay ingreso explicar gran parte aumento ingreso hogar pobre principalmente través renta imputado caso ecuador ingreso pensión transferencia evitar pobreza aumentar véar gráfico ingreso transferencia hogar pobre aumentar casi país</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1811,7 +2496,12 @@
           <t>Los tipos de hogares analizados son los monoparentales femeninos y masculinos por un lado, y los monoparentales femeninos y masculinos por otro. En 16 de los 20 países con datos disponibles en la región, las tasas de pobreza de los hogares de madres solas con hijos son más altas que las de los hogares de padres solos con hijos en más de 5 puntos porcentuales. En los cuatro países restantes - El Salvador, Honduras, Nicaragua y Panamá - las tasas de pobreza para los dos tipos de hogares son similares.</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>tipo hogar analizado ser monoparental femenino masculino lado monoparental femenino masculino país dato disponible región tasa pobreza hogar madre solo hijo ser alto hogar padre solo hijo punto porcentual cuatro país restante salvador honduras nicaraguo panamá tasa pobreza dos tipo hogar ser similar</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +2511,12 @@
           <t xml:space="preserve">Al igual que para el grupo anterior de países, las estimaciones oficiales de pobreza coinciden en la dirección de la variación, aunque en general reportan mayores reducciones de la pobreza en Ecuador, Panamá, el Estado Plurinacional de Bolivia y Uruguay. Las cifras de la CEPAL buscan reflejar la situación de la región de la manera más comparable posible, mientras que las cifras nacionales buscan captar de la mejor manera las realidades de cada país. Esto lleva a diferencias metodológicas normales en las múltiples decisiones que se toman en el proceso de construcción de las líneas de pobreza (la forma en que se seleccionan los bienes de la canasta básica alimentaria y no alimentaria, los precios utilizados para asignar valor a estos bienes o los deflactores utilizados para actualizar las líneas de pobreza, entre muchos otros factores), así como en la definición de los ingresos de los hogares, el tratamiento de las no respuestas o la inclusión del alquiler imputado por el uso de viviendas ocupadas por sus propietarios. </t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>igual grupo anterior país estimación oficial pobreza coincidir dirección variación aunque general reportar mayor reducción pobreza ecuador panamá plurinacional bolivia uruguay cifra cepal buscar reflejar situación región manera comparable posible mientras cifra nacional buscar captar mejor manera realidad cada país llevar diferencia metodológico normal múltiple decisión tomar proceso construcción línea pobreza forma seleccionar bien canasta básico alimentario alimentariar precio utilizado asignar valor bien deflactor utilizado actualizar línea pobreza factor así definición ingreso hogar tratamiento respuesta inclusión alquiler imputado uso vivienda ocupado propietario</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +2526,12 @@
           <t>Chile también vio disminuir la pobreza, en este caso entre 2015 y 2017. Las estimaciones oficiales disponibles para estos países corroboran las tendencias descritas, aunque las estimaciones son mayores en Argentina y El Salvador, menores en Costa Rica y similares en los demás países (ver tabla II.2, figura II.3 y cuadro del anexo II.A1.2). Este es el caso de Ecuador, Panamá, Perú, el Estado Plurinacional de Bolivia y Uruguay. Entre los países con datos disponibles hasta 2017, solo Brasil mostró un leve aumento de la pobreza.</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>chile ver disminuir pobreza caso estimación oficial disponible país corroborar tendencia descrito aunque estimación ser mayor argentina salvador menor costa rico similar demás país ver tabla figura cuadro anexo ser caso ecuador panamá perú plurinacional bolivia uruguay país dato disponible solo brasil mostrar leve aumento pobreza</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1841,7 +2541,12 @@
           <t>En primer lugar, los resultados generalmente atractivos en términos de efectos de alivio de la pobreza y la desigualdad de las reformas de la política comercial, ya sean unilaterales o multilaterales, brindan otra razón más de por qué a los países les interesa buscar una mayor liberalización de los mercados nacionales y mundiales. Según el estudio de Indonesia, por ejemplo, se espera que la liberalización comercial unilateral reduzca la pobreza muy levemente, pero se espera que la liberalización por parte del resto del mundo reduzca la pobreza de manera muy sustancial. En Filipinas, la reforma interna por sí sola a partir de los niveles actuales de protección podría aumentar marginalmente las tasas de pobreza, mientras que la liberalización del resto del mundo lo compensaría casi por completo (y lo compensaría con creces en el caso de solo la reforma agrícola).</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>primero lugar resultado generalmente atractivo término efecto alivio pobreza desigualdad reforma política comercial ser unilateral multilateral brindar razón país interesar buscar mayor liberalización mercado nacional mundial según estudio indonesia ejemplo esperar liberalización comercial unilateral reducir pobreza levemente esperar liberalización parte resto mundo reducir pobreza manera sustancial filipina reforma interno solo partir nivel actual protección poder aumentar marginalmente tasa pobreza mientras liberalización resto mundo compensar casi completo compensar creces caso solo reforma agrícola</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,7 +2556,12 @@
           <t>Las transferencias monetarias condicionadas de Bolsa Famflia han demostrado ser fundamentales para lograr la reducción de la pobreza observada en los últimos años. El cambio de paradigma que implicó requirió una medida inusual de coraje y voluntad política. Aunque la Constitución de Brasil ya había incluido la erradicación de la pobreza entre sus fundamentos básicos, la tendencia a culpar a los pobres por ser pobres todavía estaba muy arraigada en la sociedad, generando una fuerte oposición al programa en sus primeros años. Para dar ayuda donde se necesitaba, el gobierno federal tuvo que mejorar la estructura de sus redes de asistencia social y las de los municipios.</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>transferencia monetario condicionado bolsa famflia haber demostrar ser fundamental lograr reducción pobreza observado último año cambio paradigma implicar requerir medida inusual coraje voluntad político aunque constitución brasil haber incluir erradicación pobreza fundamento básico tendencia culpar pobre ser pobre todavía arraigado sociedad generar fuerte oposición programa primero año dar ayuda necesitar gobierno federal tener mejorar estructura red asistencia social municipio</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1861,7 +2571,12 @@
           <t>A esto se suma el riesgo de pobreza entre los menores de 15 años y la falta de mecanismos permanentes e integrales para los mayores de 65 años. En 2008, la incidencia de la pobreza en el segmento de 0 a 14 años en países como Argentina, Brasil, Panamá y Uruguay duplicaba la de los adultos (CEPAL, 2010b, p. 195). Esto crea un escenario complejo en términos de transmisión intergeneracional de la pobreza y plantea dudas sobre los pactos que sustentan el actual apoyo del Estado y la sociedad civil a las familias para el cuidado, desarrollo de capacidades y protección de los niños (CEPAL, 2010b).</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>sumar riesgo pobreza menor año falta mecanismo permanente integral mayor año incidencia pobreza segmento año país argentina brasil panamá uruguay duplicar adulto cepal creer escenario complejo término transmisión intergeneracional pobreza plantear duda pacto sustentar actual apoyo sociedad civil familia cuidado desarrollo capacidad protección niño cepal</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,7 +2586,12 @@
           <t>Hijos de la austeridad: impacto de la gran recesión en la pobreza infantil en los países ricos, Oxford University Press, http://dx.doi.org/10.1093/oso/9780198797968.003.0013. La tasa de pobreza infantil por ingresos suele definirse como la proporción de niños (de 0 a 17 años) que viven en hogares con ingresos equivalentes inferiores a un cierto umbral por debajo del cual se considera que todos los miembros de la familia son pobres. La atención se centra en la situación de los ingresos de los niños en relación con el individuo medio del país, definido como la persona con ingresos medios, no el niño medio (Corak, 2005|86i).</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>hijo austeridad impacto gran recesión pobreza infantil país rico oxford university press http doi org oso tasa pobreza infantil ingreso soler definir él proporción niño año vivir hogar ingreso equivalente inferior cierto umbral debajo considerar miembro familia ser pobre atención centrar situación ingreso niño relación individuo medio país definido persona ingreso medio niño medio corak</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1881,7 +2601,12 @@
           <t>Realizar una evaluación rigurosa de las políticas sociales queda fuera del alcance del presente documento y de la disponibilidad actual de datos. Sin embargo, podemos utilizar los datos recogidos sobre las prestaciones familiares para los pobres para tener una idea más clara de la situación actual. En función de la puntuación, la familia se inscribe para recibir estas prestaciones. Alrededor del 10% de los niños son a la vez pobres y desfavorecidos (en 2 o más carencias), y viven en familias que reciben prestaciones familiares de pobreza.</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>realizar evaluación riguroso política social quedar alcance presente documento disponibilidad actual dato embargo poder utilizar dato recogido prestación familiar pobre tener idea claro situación actual función puntuación familia inscribir recibir prestación alrededor niño ser vez pobre desfavorecido carencia vivir familia recibir prestación familiar pobreza</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1891,7 +2616,12 @@
           <t>Por lo tanto, se necesitan múltiples indicadores además de las medidas monetarias de ingresos y gastos para captar la escala y las dimensiones de la pobreza. Si bien la pobreza monetaria puede afectar solo a una minoría, solo unos pocos pueden escapar de la pobreza en cualquier forma. Desplazar la línea hacia arriba o hacia abajo podría marcar una diferencia dramática con respecto a la incidencia estimada de la pobreza monetaria.</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>necesitar múltiple indicador además medida monetario ingreso gasto captar escala dimensión pobreza bien pobreza monetario poder afectar solo minoría solo poder escapar pobreza cualquiera forma desplazar línea hacia arriba hacia abajo poder marcar diferencia dramático respecto incidencia estimado pobreza monetario</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,7 +2631,12 @@
           <t>Los niños que sufren carencias mientras no viven en hogares pobres tienden a ser un poco mayores, tienen un cabeza de familia con menos educación y es más probable que trabaje en una granja. Más de la mitad de estos niños vive en zonas rurales. Los niños que son pobres y desfavorecidos tienen más probabilidades de vivir con un cabeza de familia que probablemente sea: mujer, un poco mayor y menos probable que tenga una educación superior.</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>niño sufrir carencia mientras vivir hogar pobre tender ser mayor tener cabeza familia menos educación ser probable trabaje granja mitad niño vivir zona rural niño ser pobre desfavorecido tener probabilidad vivir cabeza familia probablemente ser mujer mayor menos probable tener educación superior</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1911,7 +2646,12 @@
           <t>Distribución de ingresos y pobreza en los países de la OCDE, París, 2008. En particular, el índice de Theil se puede descomponer en la suma de dos factores: la desigualdad intragrupo, o el grado de dispersión de los ingresos dentro de cada grupo, y la desigualdad de grupo que es la dispersión del ingreso promedio entre grupos. La desigualdad intragrupo también corresponde a la suma de los índices de Theil de cada grupo ponderados por su participación en el ingreso total de ese grupo.</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>distribución ingreso pobreza país ocde parís particular índice theil poder descomponer suma dos factor desigualdad intragrupo grado dispersión ingreso dentro cada grupo desigualdad grupo ser dispersión ingreso promedio grupo desigualdad intragrupo corresponder suma índice theil cada grupo ponderado participación ingreso total grupo</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,7 +2661,12 @@
           <t>En Croacia, Grecia y Rumanía, 1 de cada 3 niños se encuentra en el percentil 10 inferior. En Suiza, al menos el 15 % de los niños de las familias más pobres viven en hogares que no pueden permitirse actividades de ocio regulares para sus hijos. La proporción de niños en el extremo inferior de la distribución de ingresos que viven en hogares que no pueden pagar artículos que se consideran necesarios o deseables para un nivel de vida "aceptable" aumentó entre 2009 y 2013 en la mayoría de los casos analizados aquí.</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>croacia grecia rumanía cada niño encontrar percentil inferior suiza menos niño familia pobre vivir hogar poder permitir él actividad ocio regular hijo proporción niño extremo inferior distribución ingreso vivir hogar poder pagar artículo considerar necesario deseable nivel vida aceptable aumentar mayoría caso analizado aquí</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1931,7 +2676,12 @@
           <t>El informe también es una adición oportuna a los llamados realizados por la Comisión sobre la Pobreza Global, la Organización para la Cooperación y el Desarrollo Económicos y otros para incorporar las dimensiones de la calidad de vida en la forma en que entendemos y determinamos la privación humana. Pero todos los mejores datos del mundo no nos servirán de mucho si se quedan en un estante acumulando polvo. Deben utilizarse para influir en la toma de decisiones y la rendición de cuentas y, en última instancia, para transformar la vida de las personas más vulnerables del mundo. Los últimos 15 años nos han demostrado que es posible avanzar en la pobreza. Pero también sabemos que no es inevitable, ni ha sido universal. Mi esperanza es que este informe catalice a la comunidad mundial para garantizar que, esta vez, nadie se quede atrás.</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>informe ser adición oportuno llamado realizado comisión pobreza global organización cooperación desarrollo económico incorporar dimensión calidad vida forma entender determinamos privación humano mejor dato mundo servir quedar estante acumular polvo deber utilizar él influir toma decisión rendición cuenta último instancia transformar vida persona vulnerable mundo último año haber demostrar ser posible avanzar pobreza saber ser inevitable haber ser universal esperanza ser informe catalizar comunidad mundial garantizar vez nadie quedar atrás</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1941,7 +2691,12 @@
           <t>Además, de los 1200 millones que salieron de la pobreza extrema, 1100 millones eran de Asia y el Pacífico. Los países de población que viven en la pobreza extrema como Pakistán (del 64,7% al 12,7%), Camboya (del 44,5% al ​​10,1%), Azerbaiyán (del 25% a solo el 0,3%) y Tailandia (del 11,6 por ciento a solo 0,3 por ciento), han informado disminuciones significativas en el porcentaje de su población que vive en la pobreza extrema. Aunque existen líneas de pobreza internacionales, no existen estándares internacionales acordados sobre cómo medir la pobreza a nivel nacional. Dado que la medición de la pobreza se trata esencialmente de la distribución de la riqueza, cuanto más desagregados estén los datos disponibles sobre individuos y pequeños grupos dentro de una población, mayor será el valor de la información que se pueda derivar de los análisis de la pobreza. Tales mediciones y medidas normativas son importantes en Asia y el Pacífico, especialmente en vista de las tasas generales de pobreza en constante descenso que se están produciendo a pesar de la existencia de focos persistentes de pobreza. De hecho, con ese fin, los estados indios que ya tienen capacidad estadística realizan censos a nivel estatal sobre las personas que viven por debajo del umbral de la pobreza.</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>además millón salir pobreza extremo millón ser asia pacífico país población vivir pobreza extremo pakistán camboya azerbaiyán solo tailandia ciento solo ciento haber informar disminución significativo porcentaje población vivir pobreza extremo aunque existir línea pobreza internacional existir estándar internacional acordado cómo medir pobreza nivel nacional dado medición pobreza tratar esencialmente distribución riqueza cuanto desagregado dato disponible individuo pequeño grupo dentro población mayor ser valor información poder derivar análisis pobreza tal medición medida normativo ser importante asia pacífico especialmente vista tasa general pobreza constante descenso producir pesar existencia foco persistente pobreza hecho fin indio tener capacidad estadístico realizar censo nivel estatal persona vivir debajo umbral pobreza</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1951,7 +2706,12 @@
           <t>Aunque el porcentaje de población en situación de pobreza extrema en cada región ha disminuido desde 1990, con importantes variaciones entre países, el descenso ha sido más rápido en Asia Meridional. El ífrica subsahariana parece que será la única región que no alcanzará la meta del primer Objetivo de Desarrollo del Milenio de reducir a la mitad la pobreza extrema a un nivel de S1,25 al día para 2015.10 De los pobres extremos restantes, 161 millones viven en Asia oriental y el Pacífico, con el mayor número en Indonesia. Otras regiones suman menos de 50 millones (apenas el 3,5%) de los pobres extremos del mundo."</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>aunque porcentaje población situación pobreza extremo cada región haber disminuir importante variación país descenso haber ser rápido asia meridional ífrico subsaharián parecer ser único región alcanzar meta primero objetivo desarrollo milenio reducir mitad pobreza extremo nivel día pobre extremo restante millón vivir asia oriental pacífico mayor número indonesia región sumar menos millón apenas pobre extremo mundo</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1961,7 +2721,12 @@
           <t>El CSG estaba inicialmente destinado a niños pobres de hasta siete años, pero se ha ampliado progresivamente a niños pobres de hasta 15 años. Como consecuencia de la crisis financiera, el gobierno de Sudáfrica ha ampliado aún más el límite de edad hasta los 17 años. Los niños deben ser ciudadanos sudafricanos y tener ingresos familiares per cápita por debajo de un umbral.</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>csg inicialmente destinado niño pobre siete año haber ampliar progresivamente niño pobre año consecuencia crisis financiero gobierno sudáfrica haber ampliar aún límite edad año niño deber ser ciudadano sudafricano tener ingreso familiar per cápita debajo umbral</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>1</v>
       </c>
     </row>
